--- a/BA/TestCase.xlsx
+++ b/BA/TestCase.xlsx
@@ -8,19 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="3" r:id="rId1"/>
-    <sheet name="Test case" sheetId="1" r:id="rId2"/>
+    <sheet name="F001_TiepNhanYeuCau" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test case'!$A$12:$L$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">F001_TiepNhanYeuCau!$A$12:$L$172</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">F001_TiepNhanYeuCau!$A$1:$L$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ROC!$A$1:$AL$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Test case'!$A$1:$L$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="234">
   <si>
     <t>Untested</t>
   </si>
@@ -173,16 +173,10 @@
     <t>Thêm phiếu yêu cầu</t>
   </si>
   <si>
-    <t>Verify all fields needed to be input in screen "Thêm phiếu yêu cầu" are corresponding to "BM 14.01" (Specific Document)</t>
-  </si>
-  <si>
     <t>Check if "Tên KH" is auto-completed</t>
   </si>
   <si>
     <t>1. Show the auto-completed string corresponding to input string.</t>
-  </si>
-  <si>
-    <t>Check if "Tên KH" is requirement field</t>
   </si>
   <si>
     <t>1. Go to screen "Thêm phiếu yêu cầu"
@@ -258,43 +252,13 @@
     </r>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings in vietnamese into field "Tên KH"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings into field "Mã số thuế"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Mã số thuế" can be accepted by number</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input numbers into field "Mã số thuế"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Mã số thuế" is optional(can be ignored)</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Do not input anything into field "Mã số thuế"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Fax" can not be character</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings into field "Fax"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
   </si>
   <si>
     <r>
@@ -324,28 +288,10 @@
     <t>Verify that input of field "Fax" can be accepted by number</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input numbers into field "Fax"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Fax" is optional(can be ignored)</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Do not input anything into field "Fax"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Số lượng" can not be character</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings into field "Số lượng"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
   </si>
   <si>
     <r>
@@ -375,38 +321,13 @@
     <t>Verify that input of field "Số lượng" can be accepted by number</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input numbers into field "Số lượng"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Số lượng" is optional(can be ignored)</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Do not input anything into field "Số lượng"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Đơn vị" can be accepted by strings</t>
   </si>
   <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input string into field "Đơn vị"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Đơn vị" must be filled together with "Số lượng"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings into field "Đơn vị"
-3. Do not input anything into "Số lượng"
-4. Other fields have been filled correctly
-5. Click button "Tạo"</t>
   </si>
   <si>
     <t>Verify that input of field "Đơn vị" is optional(can be ignored)</t>
@@ -419,37 +340,10 @@
 2. Input some characters or strings into field "Nơi lấy mẫu"</t>
   </si>
   <si>
-    <t>Check if "Nơi lấy mẫu" is requirement field</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Do not input anything into field "Nơi lấy mẫu"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
     <t>Verify that input of field "Nơi lấy mẫu" can be in vietnamese language</t>
   </si>
   <si>
     <t>Verify that input of field "Tên KH" can be in vietnamese language</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings in vietnamese into field "Người đại diện"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Do not input anything into field "Người đại diện"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Thêm phiếu yêu cầu"
-2. Input some strings in vietnamese into field "Nơi lấy mẫu"
-3. Other fields have been filled correctly
-4. Click button "Tạo"</t>
   </si>
   <si>
     <t>Verify that input of field "SĐT" can not be character</t>
@@ -504,6 +398,832 @@
   </si>
   <si>
     <t>27/02/2017</t>
+  </si>
+  <si>
+    <t>Verify that input of "Ngày gửi mẫu/lấy mẫu" is in calendar option</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Click on field "Ngày gửi mẫu/lấy mẫu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Calendar shows up and user can choose date from it for input </t>
+  </si>
+  <si>
+    <t>Check if "Tên KH" is required</t>
+  </si>
+  <si>
+    <t>Check if "Nơi lấy mẫu" is required</t>
+  </si>
+  <si>
+    <t>Verify that input of field "SĐT" is required</t>
+  </si>
+  <si>
+    <t>Verify that field "Ngày gửi mẫu/lấy mẫu" is required</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"a" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bellow field "Ngày gửi mẫu/lấy mẫu"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings in vietnamese into field "Tên KH"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Người đại diện"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings into field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input numbers into field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings into field "Fax"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input numbers into field "Fax"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Fax"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings into field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input numbers into field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings into field "Đơn vị"
+3. Do not input anything into "Số lượng"
+4. Other fields are filled correctly
+5. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input string into field "Đơn vị"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Nơi lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings in vietnamese into field "Nơi lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings into field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input numbers into field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Ngày gửi mẫu/lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input some strings in vietnamese into field "Người đại diện"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"a" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bellow field "Ngày trả mẫu"</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that field "Ngày trả mẫu" is drop-down list with values 2, 7,10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to screen "Thêm phiếu yêu cầu"
+2. Click on file "Ngày trả mẫu"
+</t>
+  </si>
+  <si>
+    <t>1. Show the drop-down list with values 2,7,10 in this field</t>
+  </si>
+  <si>
+    <t>Verify that field "Ngày trả mẫu" is required</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Ngày trả mẫu"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user can input string into field "Địa chỉ" </t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input string into field "Địa chỉ"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>Verify that field "Địa chỉ" is required</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Do not input anything into field "Địa chỉ"
+3. Other fields are filled correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"a" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bellow field "Địa chỉ"</t>
+    </r>
+  </si>
+  <si>
+    <t>Thêm mẫu</t>
+  </si>
+  <si>
+    <t>Verify that screen "Thêm mẫu" is popped-up when user click button "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Click button "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. Pop-up screen "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>Verify all fields needed to be input in screen "Thêm mẫu" are corresponding to "BM 14.01" ( Document Specification)</t>
+  </si>
+  <si>
+    <t>Verify all fields needed to be input in screen "Thêm phiếu yêu cầu" are corresponding to "BM 14.01" (Document Specification)</t>
+  </si>
+  <si>
+    <t>1. Pop-up screen "Thêm mẫu"
+2. All fields in screen "Thêm mẫu" are corresponding to "BM 14.01"</t>
+  </si>
+  <si>
+    <t>Verify that "Kí hiệu mẫu Khách hàng" is optional(can be ignored)</t>
+  </si>
+  <si>
+    <t>Verify that input of "Kí hiệu mẫu Khách hàng" is string</t>
+  </si>
+  <si>
+    <t>Verify that input of "Vị trí lấy mẫu" is string</t>
+  </si>
+  <si>
+    <t>Verify that field "Vị trí lấy mẫu" is required</t>
+  </si>
+  <si>
+    <t>Verify that input of "Mô tả mẫu" is string</t>
+  </si>
+  <si>
+    <t>Verify that field "Mô tả mẫu" is required</t>
+  </si>
+  <si>
+    <t>Verify that field  "Chỉ tiêu yêu cầu" is required</t>
+  </si>
+  <si>
+    <t>Verify that input of "Chỉ tiêu yêu cầu" is from the fixed list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that "Loại mẫu" is drop-down list with values:  </t>
+  </si>
+  <si>
+    <t>Verify that "Loại mẫu" is required</t>
+  </si>
+  <si>
+    <t>Verify that values in column "Thứ tự" are auto-generated by order</t>
+  </si>
+  <si>
+    <t>Xóa mẫu</t>
+  </si>
+  <si>
+    <t>Verify that button "Xóa mẫu" is active</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Click on button "Xóa mẫu" of an item</t>
+  </si>
+  <si>
+    <t>Verify that warning message shows up when clicking on button "Xóa mẫu"</t>
+  </si>
+  <si>
+    <t>Tạo</t>
+  </si>
+  <si>
+    <t>Verify that button "Tạo" is active in case that some optional fields are empty</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Leave some required fields empty
+3. Click on button "Tạo"</t>
+  </si>
+  <si>
+    <t>Quay lại</t>
+  </si>
+  <si>
+    <t>Verify that button "Quay lại" is active</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input any fields you want
+3. Click on button "Quay lại"</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa phiếu yêu cầu</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>Verify that button "Lưu" is active in case that some required fields are empty</t>
+  </si>
+  <si>
+    <t>Verify that button "Lưu" is active in case that some optional fields are empty</t>
+  </si>
+  <si>
+    <t>Verify that button "Lưu" is active in case that all required conditions are satisfied</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Verify that button "In" is active</t>
+  </si>
+  <si>
+    <t>1.  In the screen showing list of  "Phiếu yêu cầu", click button "Sửa phiếu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some characters or strings into field "Tên KH"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Tên KH"
+3. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings in vietnamese into field "Tên KH"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings in vietnamese into field "Người đại diện"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Người đại diện"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings into field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input numbers into field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings into field "Fax"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. The input strings are accepted
+2. Data of "Phiếu yêu cầu" is saved</t>
+  </si>
+  <si>
+    <t>1. Data of "Phiếu yêu cầu" is saved</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input numbers into field "Fax"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Fax"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings into field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input numbers into field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings into field "Đơn vị"
+3. Do not input anything into "Số lượng"
+4. Other fields are filled correctly
+5. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input string into field "Đơn vị"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some characters or strings into field "Nơi lấy mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Nơi lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings in vietnamese into field "Nơi lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input some strings into field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input numbers into field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Click on field "Ngày gửi mẫu/lấy mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Ngày gửi mẫu/lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to screen "Sửa phiếu yêu cầu"
+2. Click on file "Ngày trả mẫu"
+</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Ngày trả mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input string into field "Địa chỉ"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Địa chỉ"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Click button "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Click on button "Xóa mẫu" of an item</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Leave some required fields empty
+3. Click on button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Leave some optional fields empty
+3. Click on button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input correctly all required fields. Optional fields can be ignored
+3. Click on button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input any fields you want
+3. Click on button "Quay lại"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Kí hiệu mẫu Khách hàng" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. "Mẫu" is added to "Phiếu yêu cầu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Input some strings in field "Kí hiệu mẫu Khác hàng"
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Input some strings in field "Vị trí lấy mẫu"
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Vị trí lấy mẫu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Input some strings in field "Mô tả mẫu"
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Mô tả mẫu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"a"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below field "Vị trí lấy mẫu"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"a"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below field "Mô tả mẫu"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Click on field "Chỉ tiêu yeu cầu"</t>
+  </si>
+  <si>
+    <t>1. Show list of fixed values</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Chỉ tiêu yêu cầu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"a"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below field "Chỉ tiêu yêu cầu"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Click on field "Loại mẫu"</t>
+  </si>
+  <si>
+    <t>Verify that "Loại mẫu" is drop-down list with fixed values</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Show drop-down list with values:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {NT: Nước thải, NC: Nước cấp, NM: Nước Mặt, KK: Không Khí, B: Bùn, Đ: Đất, TP: Thực phẩm}</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Loại mẫu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show error message </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"a"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> below field "Loại mẫu"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Fill all fields correctly
+4. Click button "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. "Mẫu" is added to "Phiếu yêu cầu"
+2. "Thứ tự" of "Mẫu" is auto generated by order</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Show the warning message to user to confirm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"a"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Click on button "Xóa mẫu" of an item
+3. Choose "Có" in warning message</t>
+  </si>
+  <si>
+    <t>Verify the system will cancel "Xóa mẫu" when user chooses "Không" in warning message box.</t>
+  </si>
+  <si>
+    <t>1. Action "Xóa mẫu" is cancelled</t>
+  </si>
+  <si>
+    <t>Verify that button "Tạo" is  active in case that some required fields are empty</t>
+  </si>
+  <si>
+    <t>1. Show the error messages below required fields</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Input correctly all fields.
+3. Click on button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Thêm phiếu yêu cầu"
+2. Leave some optional fields empty
+3. Filled all required fields correctly
+4.. Click on button "Tạo"</t>
+  </si>
+  <si>
+    <t>Verify that button "Tạo" is active in case that all fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Cancel the process of function "Thêm phiếu yêu cầu"</t>
+  </si>
+  <si>
+    <t>Huỳnh Trần Anh Phương</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>F001_TiepNhanYeuCau</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update test cases </t>
+  </si>
+  <si>
+    <t>Initialize some basic test cases for F001</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +2492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1841,11 +2561,34 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="60" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1907,26 +2650,47 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1969,25 +2733,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="150">
     <cellStyle name="_x000a_386grabber=G" xfId="16"/>
@@ -2141,96 +2886,7 @@
     <cellStyle name="開発計画書スタイル" xfId="148"/>
     <cellStyle name="集計 2" xfId="149"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <fill>
         <patternFill>
@@ -2481,245 +3137,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3108,14 +3525,15 @@
   <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:AD5"/>
+      <selection activeCell="L6" sqref="L6:AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="29" width="4.7109375" style="10"/>
     <col min="30" max="30" width="3.140625" style="10" customWidth="1"/>
-    <col min="31" max="34" width="4.7109375" style="10"/>
+    <col min="31" max="33" width="4.7109375" style="10"/>
+    <col min="34" max="34" width="8.7109375" style="10" customWidth="1"/>
     <col min="35" max="35" width="6.7109375" style="10" customWidth="1"/>
     <col min="36" max="36" width="6" style="10" customWidth="1"/>
     <col min="37" max="16384" width="4.7109375" style="10"/>
@@ -3123,18 +3541,18 @@
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="33"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -3162,61 +3580,61 @@
       <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="30.75">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1">
       <c r="A3" s="11"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -3245,371 +3663,401 @@
     </row>
     <row r="4" spans="1:38" s="15" customFormat="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45" t="s">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="48" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="56"/>
+      <c r="AE4" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="48" t="s">
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" s="50"/>
+      <c r="AJ4" s="59"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" s="15" customFormat="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
+      <c r="B5" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="47"/>
+      <c r="AE5" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ5" s="51"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" s="15" customFormat="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
+      <c r="B6" s="46">
+        <v>42769</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="47"/>
+      <c r="AA6" s="47"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="47"/>
+      <c r="AE6" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="13"/>
     </row>
     <row r="7" spans="1:38" s="15" customFormat="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="42"/>
+      <c r="B7" s="46">
+        <v>42981</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="47"/>
+      <c r="AE7" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ7" s="51"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="13"/>
     </row>
     <row r="8" spans="1:38" s="15" customFormat="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="47"/>
+      <c r="AE8" s="48"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="50"/>
+      <c r="AI8" s="51"/>
+      <c r="AJ8" s="51"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="13"/>
     </row>
     <row r="9" spans="1:38" s="15" customFormat="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="42"/>
-      <c r="AJ9" s="42"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="47"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="51"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="13"/>
     </row>
     <row r="10" spans="1:38" s="15" customFormat="1">
       <c r="A10" s="11"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="52"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="51"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="13"/>
     </row>
     <row r="11" spans="1:38" s="15" customFormat="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="50"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="51"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="13"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="11"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38"/>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="13"/>
     </row>
@@ -4740,26 +5188,26 @@
     <row r="42" spans="1:38" ht="98.25" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="12" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C42" s="12"/>
-      <c r="D42" s="83" t="s">
-        <v>97</v>
+      <c r="D42" s="33" t="s">
+        <v>78</v>
       </c>
       <c r="E42" s="12"/>
-      <c r="F42" s="84" t="s">
-        <v>102</v>
+      <c r="F42" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:38" ht="409.5">
       <c r="A43" s="11"/>
       <c r="B43" s="12" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="83" t="s">
-        <v>99</v>
+      <c r="D43" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4768,15 +5216,15 @@
     <row r="44" spans="1:38" ht="409.5">
       <c r="A44" s="11"/>
       <c r="B44" s="12" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C44" s="12"/>
-      <c r="D44" s="83" t="s">
-        <v>101</v>
+      <c r="D44" s="33" t="s">
+        <v>82</v>
       </c>
       <c r="E44" s="12"/>
-      <c r="F44" s="84" t="s">
-        <v>102</v>
+      <c r="F44" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="G44" s="12"/>
     </row>
@@ -4862,10 +5310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A44" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A75" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4889,17 +5337,17 @@
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70" t="s">
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="71"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
@@ -4915,26 +5363,26 @@
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="70" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="87"/>
       <c r="I2" s="23" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="28"/>
       <c r="L2" s="23">
-        <v>42769</v>
+        <v>42981</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4942,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <f>COUNTIF($G$3:$G$86,"P")</f>
+        <f>COUNTIF($G$3:$G$188,"P")</f>
         <v>0</v>
       </c>
     </row>
@@ -4951,8 +5399,8 @@
         <v>0</v>
       </c>
       <c r="D5" s="6">
-        <f>COUNTIF($G$3:$G$86,"U")</f>
-        <v>27</v>
+        <f>COUNTIF($G$3:$G$188,"U")</f>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4960,7 +5408,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <f>COUNTIF($G$3:$G$86,"F")</f>
+        <f>COUNTIF($G$3:$G$188,"F")</f>
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +5417,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="2">
-        <f>COUNTIF($G$3:$G$86,"H")</f>
+        <f>COUNTIF($G$3:$G$188,"H")</f>
         <v>3</v>
       </c>
     </row>
@@ -4978,7 +5426,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="3">
-        <f>COUNTIF($G$3:$G$86,"C")</f>
+        <f>COUNTIF($G$3:$G$188,"C")</f>
         <v>0</v>
       </c>
     </row>
@@ -4988,21 +5436,21 @@
       </c>
       <c r="D9" s="4">
         <f>SUM(D$1:$D8)</f>
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="72" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="18" t="s">
         <v>8</v>
       </c>
@@ -5015,40 +5463,40 @@
       <c r="I12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A14" s="82">
+      <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="56" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="25" t="s">
         <v>28</v>
       </c>
@@ -5057,22 +5505,22 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A15" s="82">
+      <c r="A15" s="32">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="56" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="25" t="s">
         <v>28</v>
       </c>
@@ -5081,22 +5529,22 @@
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A16" s="82">
+      <c r="A16" s="32">
         <v>3</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="56" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="25" t="s">
         <v>28</v>
       </c>
@@ -5105,22 +5553,22 @@
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
-      <c r="A17" s="82">
+      <c r="A17" s="32">
         <v>4</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="25" t="s">
         <v>44</v>
       </c>
@@ -5129,22 +5577,22 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A18" s="82">
+      <c r="A18" s="32">
         <v>5</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="56" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="25" t="s">
         <v>40</v>
       </c>
@@ -5153,39 +5601,39 @@
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A20" s="82">
+      <c r="A20" s="32">
         <v>6</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="56" t="s">
+      <c r="C20" s="69"/>
+      <c r="D20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="81" t="s">
+      <c r="E20" s="69"/>
+      <c r="F20" s="31" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="26" t="s">
@@ -5193,23 +5641,23 @@
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A21" s="82">
+      <c r="A21" s="32">
         <v>7</v>
       </c>
-      <c r="B21" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="56" t="s">
+      <c r="B21" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="81" t="s">
+      <c r="E21" s="69"/>
+      <c r="F21" s="31" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="26" t="s">
@@ -5217,983 +5665,2957 @@
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A22" s="82">
+      <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="25" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="25" t="s">
-        <v>51</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A23" s="82">
+      <c r="A23" s="32">
         <v>9</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="69"/>
       <c r="F23" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A24" s="82">
+      <c r="A24" s="32">
         <v>10</v>
       </c>
-      <c r="B24" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="57"/>
+      <c r="B24" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="73"/>
+      <c r="D24" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="69"/>
       <c r="F24" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A25" s="82">
+      <c r="A25" s="32">
         <v>11</v>
       </c>
-      <c r="B25" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="57"/>
+      <c r="B25" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="69"/>
       <c r="F25" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1">
-      <c r="A26" s="82">
+      <c r="A26" s="32">
         <v>12</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="25" t="s">
         <v>57</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A27" s="82">
+      <c r="A27" s="32">
         <v>13</v>
       </c>
-      <c r="B27" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="57"/>
+      <c r="B27" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="73"/>
+      <c r="D27" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="69"/>
       <c r="F27" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A28" s="82">
+      <c r="A28" s="32">
         <v>14</v>
       </c>
-      <c r="B28" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="57"/>
+      <c r="B28" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="69"/>
       <c r="F28" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="60"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="1:12" ht="93.75" customHeight="1">
-      <c r="A29" s="82">
+      <c r="A29" s="32">
         <v>15</v>
       </c>
-      <c r="B29" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="57"/>
+      <c r="B29" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="69"/>
       <c r="F29" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G29" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" ht="81" customHeight="1">
-      <c r="A30" s="82">
+      <c r="A30" s="32">
         <v>16</v>
       </c>
-      <c r="B30" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="57"/>
+      <c r="B30" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="73"/>
+      <c r="D30" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="69"/>
       <c r="F30" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G30" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" ht="97.5" customHeight="1">
-      <c r="A31" s="82">
+      <c r="A31" s="32">
         <v>17</v>
       </c>
-      <c r="B31" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="57"/>
+      <c r="B31" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="69"/>
       <c r="F31" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" ht="90.75" customHeight="1">
-      <c r="A32" s="82">
+      <c r="A32" s="32">
         <v>18</v>
       </c>
-      <c r="B32" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="57"/>
+      <c r="B32" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="69"/>
       <c r="F32" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="60"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:12" ht="98.25" customHeight="1">
-      <c r="A33" s="82">
+      <c r="A33" s="32">
         <v>19</v>
       </c>
-      <c r="B33" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="57"/>
+      <c r="B33" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="69"/>
       <c r="F33" s="25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="1:12" ht="88.5" customHeight="1">
-      <c r="A34" s="82">
+      <c r="A34" s="32">
         <v>20</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="57"/>
+      <c r="B34" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="73"/>
+      <c r="D34" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="69"/>
       <c r="F34" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A35" s="82">
+      <c r="A35" s="32">
         <v>21</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="57"/>
+      <c r="B35" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="73"/>
+      <c r="D35" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="69"/>
       <c r="F35" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="80"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="120.75" customHeight="1">
-      <c r="A36" s="82">
+      <c r="A36" s="32">
         <v>22</v>
       </c>
-      <c r="B36" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="57"/>
+      <c r="B36" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="73"/>
+      <c r="D36" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="69"/>
       <c r="F36" s="25" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="80"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A37" s="82">
+      <c r="A37" s="32">
         <v>23</v>
       </c>
-      <c r="B37" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="57"/>
+      <c r="B37" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="69"/>
       <c r="F37" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="80"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="76"/>
     </row>
     <row r="38" spans="1:12" s="20" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A38" s="82">
+      <c r="A38" s="32">
         <v>24</v>
       </c>
-      <c r="B38" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="57"/>
+      <c r="B38" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="69"/>
       <c r="F38" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="80"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
     </row>
     <row r="39" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A39" s="82">
+      <c r="A39" s="32">
         <v>25</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="57"/>
+      <c r="B39" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="73"/>
+      <c r="D39" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="69"/>
       <c r="F39" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="80"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="76"/>
     </row>
     <row r="40" spans="1:12" s="20" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A40" s="82">
+      <c r="A40" s="32">
         <v>26</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="57"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="69"/>
       <c r="F40" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="80"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="76"/>
     </row>
     <row r="41" spans="1:12" s="20" customFormat="1" ht="99" customHeight="1">
-      <c r="A41" s="82">
+      <c r="A41" s="32">
         <v>27</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="57"/>
+      <c r="B41" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="73"/>
+      <c r="D41" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="69"/>
       <c r="F41" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="80"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="76"/>
     </row>
     <row r="42" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A42" s="82">
+      <c r="A42" s="32">
         <v>28</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="57"/>
+      <c r="B42" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="73"/>
+      <c r="D42" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="69"/>
       <c r="F42" s="25" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="80"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="76"/>
     </row>
     <row r="43" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A43" s="82">
+      <c r="A43" s="32">
         <v>29</v>
       </c>
-      <c r="B43" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E43" s="57"/>
+      <c r="B43" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="73"/>
+      <c r="D43" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="69"/>
       <c r="F43" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="80"/>
-    </row>
-    <row r="44" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A44" s="82">
+      <c r="J43" s="74"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+    </row>
+    <row r="44" spans="1:12" s="20" customFormat="1" ht="108" customHeight="1">
+      <c r="A44" s="32">
         <v>30</v>
       </c>
-      <c r="B44" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="57"/>
+      <c r="B44" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="73"/>
+      <c r="D44" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="69"/>
       <c r="F44" s="25" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="80"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="76"/>
     </row>
     <row r="45" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A45" s="24">
+      <c r="A45" s="32">
         <v>31</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="B45" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="73"/>
+      <c r="D45" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="69"/>
+      <c r="F45" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="80"/>
-    </row>
-    <row r="46" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A46" s="24">
+      <c r="J45" s="74"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="76"/>
+    </row>
+    <row r="46" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A46" s="32">
         <v>32</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
+      <c r="B46" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="73"/>
+      <c r="D46" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="69"/>
+      <c r="F46" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-    </row>
-    <row r="47" spans="1:12" ht="77.25" customHeight="1">
-      <c r="A47" s="24">
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
+    </row>
+    <row r="47" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A47" s="32">
         <v>33</v>
       </c>
-      <c r="B47" s="56"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
+      <c r="B47" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="73"/>
+      <c r="D47" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="69"/>
+      <c r="F47" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="63"/>
-      <c r="B48" s="64"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
-      <c r="I48" s="64"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="64"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+    </row>
+    <row r="48" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A48" s="32">
+        <v>34</v>
+      </c>
+      <c r="B48" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="73"/>
+      <c r="D48" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="69"/>
+      <c r="F48" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
       <c r="L48" s="65"/>
     </row>
-    <row r="49" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+    <row r="49" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A49" s="32">
+        <v>35</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="69"/>
+      <c r="F49" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-    </row>
-    <row r="50" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+    </row>
+    <row r="50" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A50" s="32">
+        <v>36</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="73"/>
+      <c r="D50" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="69"/>
+      <c r="F50" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
-    </row>
-    <row r="51" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-    </row>
-    <row r="52" spans="1:12" ht="107.25" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+    </row>
+    <row r="51" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A51" s="36"/>
+      <c r="B51" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="70"/>
+      <c r="H51" s="70"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="71"/>
+    </row>
+    <row r="52" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A52" s="32">
+        <v>37</v>
+      </c>
+      <c r="B52" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="73"/>
+      <c r="D52" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="69"/>
+      <c r="F52" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-    </row>
-    <row r="53" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+    </row>
+    <row r="53" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A53" s="32">
+        <v>38</v>
+      </c>
+      <c r="B53" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="73"/>
+      <c r="D53" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="69"/>
+      <c r="F53" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-    </row>
-    <row r="54" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+    </row>
+    <row r="54" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A54" s="32">
+        <v>39</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="69"/>
+      <c r="D54" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="69"/>
+      <c r="F54" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-    </row>
-    <row r="55" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
+    </row>
+    <row r="55" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A55" s="32">
+        <v>40</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="69"/>
+      <c r="D55" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="69"/>
+      <c r="F55" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-    </row>
-    <row r="56" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="1:12" s="20" customFormat="1" ht="90.75" customHeight="1">
+      <c r="A56" s="32">
+        <v>41</v>
+      </c>
+      <c r="B56" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="69"/>
+      <c r="D56" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="E56" s="69"/>
+      <c r="F56" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-    </row>
-    <row r="57" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="26"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="1:12" s="20" customFormat="1" ht="97.5" customHeight="1">
+      <c r="A57" s="32">
+        <v>42</v>
+      </c>
+      <c r="B57" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E57" s="69"/>
+      <c r="F57" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-    </row>
-    <row r="58" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
+    </row>
+    <row r="58" spans="1:12" s="20" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A58" s="32">
+        <v>43</v>
+      </c>
+      <c r="B58" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="69"/>
+      <c r="F58" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-    </row>
-    <row r="59" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="1:12" s="20" customFormat="1" ht="78" customHeight="1">
+      <c r="A59" s="32">
+        <v>44</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="69"/>
+      <c r="F59" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-    </row>
-    <row r="60" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
+    </row>
+    <row r="60" spans="1:12" s="20" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A60" s="32">
+        <v>45</v>
+      </c>
+      <c r="B60" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="69"/>
+      <c r="F60" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-    </row>
-    <row r="61" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+    </row>
+    <row r="61" spans="1:12" s="20" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A61" s="32">
+        <v>46</v>
+      </c>
+      <c r="B61" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E61" s="69"/>
+      <c r="F61" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-    </row>
-    <row r="62" spans="1:12" ht="59.25" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+    </row>
+    <row r="62" spans="1:12" s="20" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A62" s="32">
+        <v>47</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="69"/>
+      <c r="F62" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-    </row>
-    <row r="63" spans="1:12" ht="81" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="26"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+    </row>
+    <row r="63" spans="1:12" s="20" customFormat="1" ht="75" customHeight="1">
+      <c r="A63" s="32">
+        <v>48</v>
+      </c>
+      <c r="B63" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="E63" s="69"/>
+      <c r="F63" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-    </row>
-    <row r="64" spans="1:12" ht="89.25" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="29"/>
-      <c r="G64" s="26"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+    </row>
+    <row r="64" spans="1:12" s="20" customFormat="1" ht="69" customHeight="1">
+      <c r="A64" s="32">
+        <v>49</v>
+      </c>
+      <c r="B64" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="E64" s="69"/>
+      <c r="F64" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-    </row>
-    <row r="65" spans="1:12" ht="76.5" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-    </row>
-    <row r="66" spans="1:12" ht="76.5" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="29"/>
-      <c r="G66" s="26"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+    </row>
+    <row r="65" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A65" s="36"/>
+      <c r="B65" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="70"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="71"/>
+    </row>
+    <row r="66" spans="1:12" s="20" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A66" s="32">
+        <v>50</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="69"/>
+      <c r="F66" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-    </row>
-    <row r="67" spans="1:12" ht="96" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="26"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
+    </row>
+    <row r="67" spans="1:12" s="20" customFormat="1" ht="68.25" customHeight="1">
+      <c r="A67" s="32">
+        <v>51</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="69"/>
+      <c r="F67" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-    </row>
-    <row r="68" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+    </row>
+    <row r="68" spans="1:12" s="20" customFormat="1" ht="60" customHeight="1">
+      <c r="A68" s="32">
+        <v>52</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="E68" s="69"/>
+      <c r="F68" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-    </row>
-    <row r="69" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-    </row>
-    <row r="70" spans="1:12" ht="77.25" customHeight="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+    </row>
+    <row r="69" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A69" s="36"/>
+      <c r="B69" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="71"/>
+    </row>
+    <row r="70" spans="1:12" s="20" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A70" s="32">
+        <v>53</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" s="69"/>
+      <c r="F70" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-    </row>
-    <row r="71" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
+    </row>
+    <row r="71" spans="1:12" s="20" customFormat="1" ht="64.5" customHeight="1">
+      <c r="A71" s="32">
+        <v>54</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="69"/>
+      <c r="F71" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-    </row>
-    <row r="72" spans="1:12" ht="40.5" customHeight="1">
-      <c r="A72" s="24"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+    </row>
+    <row r="72" spans="1:12" s="20" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A72" s="32">
+        <v>55</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" s="69"/>
+      <c r="F72" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-    </row>
-    <row r="73" spans="1:12" ht="42.75" customHeight="1">
-      <c r="A73" s="24"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="58"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
+    </row>
+    <row r="73" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A73" s="36"/>
+      <c r="B73" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+      <c r="J73" s="70"/>
+      <c r="K73" s="70"/>
+      <c r="L73" s="71"/>
+    </row>
+    <row r="74" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A74" s="32">
+        <v>56</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="69"/>
+      <c r="F74" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="81"/>
+    </row>
+    <row r="76" spans="1:12" ht="105.75" customHeight="1">
+      <c r="A76" s="40"/>
+      <c r="B76" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="69"/>
+      <c r="D76" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" s="69"/>
+      <c r="F76" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
+    </row>
+    <row r="77" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A77" s="40"/>
+      <c r="B77" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="73"/>
+      <c r="D77" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="69"/>
+      <c r="F77" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
+    </row>
+    <row r="78" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A78" s="40"/>
+      <c r="B78" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="73"/>
+      <c r="D78" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="E78" s="69"/>
+      <c r="F78" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
+    </row>
+    <row r="79" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A79" s="40"/>
+      <c r="B79" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="73"/>
+      <c r="D79" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="E79" s="69"/>
+      <c r="F79" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+    </row>
+    <row r="80" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A80" s="40"/>
+      <c r="B80" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="73"/>
+      <c r="D80" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="69"/>
+      <c r="F80" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
+    </row>
+    <row r="81" spans="1:12" s="20" customFormat="1" ht="107.25" customHeight="1">
+      <c r="A81" s="40"/>
+      <c r="B81" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C81" s="73"/>
+      <c r="D81" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="69"/>
+      <c r="F81" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
+    </row>
+    <row r="82" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1">
+      <c r="A82" s="40"/>
+      <c r="B82" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="73"/>
+      <c r="D82" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="E82" s="69"/>
+      <c r="F82" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+    </row>
+    <row r="83" spans="1:12" s="20" customFormat="1" ht="102.75" customHeight="1">
+      <c r="A83" s="40"/>
+      <c r="B83" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C83" s="73"/>
+      <c r="D83" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="69"/>
+      <c r="F83" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+    </row>
+    <row r="84" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A84" s="40"/>
+      <c r="B84" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="73"/>
+      <c r="D84" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="E84" s="69"/>
+      <c r="F84" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" s="26"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+    </row>
+    <row r="85" spans="1:12" ht="93.75" customHeight="1">
+      <c r="A85" s="40"/>
+      <c r="B85" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="73"/>
+      <c r="D85" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="E85" s="69"/>
+      <c r="F85" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="26"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+    </row>
+    <row r="86" spans="1:12" ht="81" customHeight="1">
+      <c r="A86" s="40"/>
+      <c r="B86" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" s="73"/>
+      <c r="D86" s="68" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" s="69"/>
+      <c r="F86" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="26"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+    </row>
+    <row r="87" spans="1:12" ht="97.5" customHeight="1">
+      <c r="A87" s="40"/>
+      <c r="B87" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="73"/>
+      <c r="D87" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="E87" s="69"/>
+      <c r="F87" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" s="26"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+    </row>
+    <row r="88" spans="1:12" ht="90.75" customHeight="1">
+      <c r="A88" s="40"/>
+      <c r="B88" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="73"/>
+      <c r="D88" s="68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E88" s="69"/>
+      <c r="F88" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" s="26"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+    </row>
+    <row r="89" spans="1:12" ht="98.25" customHeight="1">
+      <c r="A89" s="40"/>
+      <c r="B89" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="73"/>
+      <c r="D89" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89" s="69"/>
+      <c r="F89" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G89" s="26"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+    </row>
+    <row r="90" spans="1:12" ht="88.5" customHeight="1">
+      <c r="A90" s="40"/>
+      <c r="B90" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="73"/>
+      <c r="D90" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" s="69"/>
+      <c r="F90" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" s="26"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+    </row>
+    <row r="91" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A91" s="40"/>
+      <c r="B91" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" s="73"/>
+      <c r="D91" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E91" s="69"/>
+      <c r="F91" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G91" s="26"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="75"/>
+      <c r="L91" s="76"/>
+    </row>
+    <row r="92" spans="1:12" s="20" customFormat="1" ht="120.75" customHeight="1">
+      <c r="A92" s="40"/>
+      <c r="B92" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="C92" s="73"/>
+      <c r="D92" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" s="69"/>
+      <c r="F92" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G92" s="26"/>
+      <c r="H92" s="27"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="75"/>
+      <c r="L92" s="76"/>
+    </row>
+    <row r="93" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A93" s="40"/>
+      <c r="B93" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="73"/>
+      <c r="D93" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="E93" s="69"/>
+      <c r="F93" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" s="26"/>
+      <c r="H93" s="27"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="75"/>
+      <c r="L93" s="76"/>
+    </row>
+    <row r="94" spans="1:12" s="20" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A94" s="40"/>
+      <c r="B94" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="73"/>
+      <c r="D94" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="69"/>
+      <c r="F94" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" s="26"/>
+      <c r="H94" s="27"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="74"/>
+      <c r="K94" s="75"/>
+      <c r="L94" s="76"/>
+    </row>
+    <row r="95" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A95" s="40"/>
+      <c r="B95" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="73"/>
+      <c r="D95" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E95" s="69"/>
+      <c r="F95" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G95" s="26"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="74"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="76"/>
+    </row>
+    <row r="96" spans="1:12" s="20" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A96" s="40"/>
+      <c r="B96" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" s="73"/>
+      <c r="D96" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="E96" s="69"/>
+      <c r="F96" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="26"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="76"/>
+    </row>
+    <row r="97" spans="1:12" s="20" customFormat="1" ht="99" customHeight="1">
+      <c r="A97" s="40"/>
+      <c r="B97" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" s="73"/>
+      <c r="D97" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="69"/>
+      <c r="F97" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="G97" s="26"/>
+      <c r="H97" s="27"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="75"/>
+      <c r="L97" s="76"/>
+    </row>
+    <row r="98" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A98" s="40"/>
+      <c r="B98" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="73"/>
+      <c r="D98" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E98" s="69"/>
+      <c r="F98" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G98" s="26"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="75"/>
+      <c r="L98" s="76"/>
+    </row>
+    <row r="99" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A99" s="40"/>
+      <c r="B99" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="73"/>
+      <c r="D99" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" s="69"/>
+      <c r="F99" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G99" s="26"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="75"/>
+      <c r="L99" s="76"/>
+    </row>
+    <row r="100" spans="1:12" s="20" customFormat="1" ht="108" customHeight="1">
+      <c r="A100" s="40"/>
+      <c r="B100" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="73"/>
+      <c r="D100" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E100" s="69"/>
+      <c r="F100" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G100" s="26"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="75"/>
+      <c r="L100" s="76"/>
+    </row>
+    <row r="101" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A101" s="40"/>
+      <c r="B101" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="73"/>
+      <c r="D101" s="68" t="s">
+        <v>185</v>
+      </c>
+      <c r="E101" s="69"/>
+      <c r="F101" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G101" s="26"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="75"/>
+      <c r="L101" s="76"/>
+    </row>
+    <row r="102" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A102" s="40"/>
+      <c r="B102" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" s="73"/>
+      <c r="D102" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="69"/>
+      <c r="F102" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G102" s="26"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+    </row>
+    <row r="103" spans="1:12" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A103" s="40"/>
+      <c r="B103" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C103" s="73"/>
+      <c r="D103" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E103" s="69"/>
+      <c r="F103" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="G103" s="26"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
+    </row>
+    <row r="104" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A104" s="40"/>
+      <c r="B104" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" s="73"/>
+      <c r="D104" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E104" s="69"/>
+      <c r="F104" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G104" s="26"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
+    </row>
+    <row r="105" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A105" s="40"/>
+      <c r="B105" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C105" s="73"/>
+      <c r="D105" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E105" s="69"/>
+      <c r="F105" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G105" s="26"/>
+      <c r="H105" s="27"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65"/>
+    </row>
+    <row r="106" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A106" s="40"/>
+      <c r="B106" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="73"/>
+      <c r="D106" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E106" s="69"/>
+      <c r="F106" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G106" s="26"/>
+      <c r="H106" s="27"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
+      <c r="L106" s="65"/>
+    </row>
+    <row r="107" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A107" s="36"/>
+      <c r="B107" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="70"/>
+      <c r="D107" s="70"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="70"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="70"/>
+      <c r="J107" s="70"/>
+      <c r="K107" s="70"/>
+      <c r="L107" s="71"/>
+    </row>
+    <row r="108" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A108" s="40"/>
+      <c r="B108" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="73"/>
+      <c r="D108" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="69"/>
+      <c r="F108" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G108" s="26"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
+      <c r="L108" s="65"/>
+    </row>
+    <row r="109" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A109" s="40"/>
+      <c r="B109" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" s="73"/>
+      <c r="D109" s="68" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" s="69"/>
+      <c r="F109" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" s="26"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
+    </row>
+    <row r="110" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A110" s="24"/>
+      <c r="B110" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="69"/>
+      <c r="D110" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E110" s="69"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
+      <c r="L110" s="65"/>
+    </row>
+    <row r="111" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A111" s="24"/>
+      <c r="B111" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" s="69"/>
+      <c r="D111" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E111" s="69"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+    </row>
+    <row r="112" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
+      <c r="A112" s="24"/>
+      <c r="B112" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="69"/>
+      <c r="D112" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E112" s="69"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
+    </row>
+    <row r="113" spans="1:12" s="20" customFormat="1" ht="53.25" customHeight="1">
+      <c r="A113" s="24"/>
+      <c r="B113" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" s="69"/>
+      <c r="D113" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" s="69"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+    </row>
+    <row r="114" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1">
+      <c r="A114" s="24"/>
+      <c r="B114" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" s="69"/>
+      <c r="D114" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" s="69"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+    </row>
+    <row r="115" spans="1:12" s="20" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A115" s="24"/>
+      <c r="B115" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="69"/>
+      <c r="D115" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E115" s="69"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
+    </row>
+    <row r="116" spans="1:12" s="20" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A116" s="24"/>
+      <c r="B116" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="69"/>
+      <c r="D116" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E116" s="69"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+    </row>
+    <row r="117" spans="1:12" s="20" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A117" s="24"/>
+      <c r="B117" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="69"/>
+      <c r="D117" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E117" s="69"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+    </row>
+    <row r="118" spans="1:12" s="20" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A118" s="24"/>
+      <c r="B118" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" s="69"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="30"/>
+    </row>
+    <row r="119" spans="1:12" s="20" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A119" s="24"/>
+      <c r="B119" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E119" s="69"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+    </row>
+    <row r="120" spans="1:12" s="20" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A120" s="24"/>
+      <c r="B120" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="67"/>
+      <c r="D120" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="E120" s="69"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="27"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="30"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="30"/>
+    </row>
+    <row r="121" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A121" s="36"/>
+      <c r="B121" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="70"/>
+      <c r="D121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="70"/>
+      <c r="H121" s="70"/>
+      <c r="I121" s="70"/>
+      <c r="J121" s="70"/>
+      <c r="K121" s="70"/>
+      <c r="L121" s="71"/>
+    </row>
+    <row r="122" spans="1:12" s="20" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A122" s="24"/>
+      <c r="B122" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="67"/>
+      <c r="D122" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E122" s="69"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="30"/>
+    </row>
+    <row r="123" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A123" s="24"/>
+      <c r="B123" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C123" s="67"/>
+      <c r="D123" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E123" s="69"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+    </row>
+    <row r="124" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A124" s="36"/>
+      <c r="B124" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="70"/>
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="70"/>
+      <c r="H124" s="70"/>
+      <c r="I124" s="70"/>
+      <c r="J124" s="70"/>
+      <c r="K124" s="70"/>
+      <c r="L124" s="71"/>
+    </row>
+    <row r="125" spans="1:12" s="20" customFormat="1" ht="59.25" customHeight="1">
+      <c r="A125" s="38"/>
+      <c r="B125" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E125" s="69"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="26"/>
+      <c r="H125" s="27"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="35"/>
+      <c r="K125" s="35"/>
+      <c r="L125" s="35"/>
+    </row>
+    <row r="126" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A126" s="38"/>
+      <c r="B126" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="67"/>
+      <c r="D126" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E126" s="69"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="26"/>
+      <c r="H126" s="27"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="35"/>
+      <c r="K126" s="35"/>
+      <c r="L126" s="35"/>
+    </row>
+    <row r="127" spans="1:12" s="20" customFormat="1" ht="62.25" customHeight="1">
+      <c r="A127" s="38"/>
+      <c r="B127" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="67"/>
+      <c r="D127" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E127" s="69"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="26"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="35"/>
+      <c r="K127" s="35"/>
+      <c r="L127" s="35"/>
+    </row>
+    <row r="128" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A128" s="36"/>
+      <c r="B128" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+      <c r="E128" s="70"/>
+      <c r="F128" s="70"/>
+      <c r="G128" s="70"/>
+      <c r="H128" s="70"/>
+      <c r="I128" s="70"/>
+      <c r="J128" s="70"/>
+      <c r="K128" s="70"/>
+      <c r="L128" s="71"/>
+    </row>
+    <row r="129" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A129" s="38"/>
+      <c r="B129" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C129" s="67"/>
+      <c r="D129" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E129" s="69"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="27"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="35"/>
+      <c r="K129" s="35"/>
+      <c r="L129" s="35"/>
+    </row>
+    <row r="130" spans="1:12" ht="24.75" customHeight="1">
+      <c r="A130" s="36"/>
+      <c r="B130" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" s="70"/>
+      <c r="D130" s="70"/>
+      <c r="E130" s="70"/>
+      <c r="F130" s="70"/>
+      <c r="G130" s="70"/>
+      <c r="H130" s="70"/>
+      <c r="I130" s="70"/>
+      <c r="J130" s="70"/>
+      <c r="K130" s="70"/>
+      <c r="L130" s="71"/>
+    </row>
+    <row r="131" spans="1:12" s="20" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A131" s="39"/>
+      <c r="B131" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" s="67"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="26"/>
+      <c r="H131" s="27"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="30"/>
+    </row>
+    <row r="132" spans="1:12" s="20" customFormat="1">
+      <c r="A132" s="24"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="69"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="26"/>
+      <c r="H132" s="27"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+    </row>
+    <row r="133" spans="1:12" s="20" customFormat="1">
+      <c r="A133" s="24"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="26"/>
+      <c r="H133" s="27"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+    </row>
+    <row r="134" spans="1:12" s="20" customFormat="1">
+      <c r="A134" s="24"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="69"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="27"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+    </row>
+    <row r="135" spans="1:12" s="20" customFormat="1">
+      <c r="A135" s="24"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+    </row>
+    <row r="136" spans="1:12" s="20" customFormat="1">
+      <c r="A136" s="24"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="26"/>
+      <c r="H136" s="27"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+    </row>
+    <row r="137" spans="1:12" s="20" customFormat="1">
+      <c r="A137" s="24"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="26"/>
+      <c r="H137" s="27"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+    </row>
+    <row r="138" spans="1:12" s="20" customFormat="1">
+      <c r="A138" s="24"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="27"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+    </row>
+    <row r="139" spans="1:12" s="20" customFormat="1">
+      <c r="A139" s="24"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="69"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
+    </row>
+    <row r="140" spans="1:12" s="20" customFormat="1">
+      <c r="A140" s="24"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="69"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+    </row>
+    <row r="141" spans="1:12" s="20" customFormat="1">
+      <c r="A141" s="24"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="27"/>
+      <c r="I141" s="27"/>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+    </row>
+    <row r="142" spans="1:12" s="20" customFormat="1">
+      <c r="A142" s="24"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="69"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="26"/>
+      <c r="H142" s="27"/>
+      <c r="I142" s="27"/>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="30"/>
+    </row>
+    <row r="143" spans="1:12" s="20" customFormat="1">
+      <c r="A143" s="24"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="69"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="27"/>
+      <c r="I143" s="27"/>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+    </row>
+    <row r="144" spans="1:12" s="20" customFormat="1">
+      <c r="A144" s="24"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="26"/>
+      <c r="H144" s="27"/>
+      <c r="I144" s="27"/>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="30"/>
+    </row>
+    <row r="145" spans="1:12" s="20" customFormat="1">
+      <c r="A145" s="24"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
+    </row>
+    <row r="146" spans="1:12" s="20" customFormat="1">
+      <c r="A146" s="24"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="26"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="30"/>
+    </row>
+    <row r="147" spans="1:12" s="20" customFormat="1">
+      <c r="A147" s="24"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="26"/>
+      <c r="H147" s="27"/>
+      <c r="I147" s="27"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="30"/>
+    </row>
+    <row r="148" spans="1:12" s="20" customFormat="1">
+      <c r="A148" s="24"/>
+      <c r="B148" s="68"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="26"/>
+      <c r="H148" s="27"/>
+      <c r="I148" s="27"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="30"/>
+    </row>
+    <row r="149" spans="1:12" ht="77.25" customHeight="1">
+      <c r="A149" s="24"/>
+      <c r="B149" s="72"/>
+      <c r="C149" s="73"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="69"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="26"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="65"/>
+      <c r="K149" s="65"/>
+      <c r="L149" s="65"/>
+    </row>
+    <row r="150" spans="1:12" ht="33" customHeight="1">
+      <c r="A150" s="79"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="80"/>
+      <c r="F150" s="80"/>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
+      <c r="K150" s="80"/>
+      <c r="L150" s="81"/>
+    </row>
+    <row r="151" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A151" s="24"/>
+      <c r="B151" s="72"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="69"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="26"/>
+      <c r="H151" s="27"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="65"/>
+      <c r="K151" s="65"/>
+      <c r="L151" s="65"/>
+    </row>
+    <row r="152" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A152" s="24"/>
+      <c r="B152" s="72"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="26"/>
+      <c r="H152" s="27"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="65"/>
+      <c r="K152" s="65"/>
+      <c r="L152" s="65"/>
+    </row>
+    <row r="153" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A153" s="24"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="69"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="65"/>
+      <c r="K153" s="65"/>
+      <c r="L153" s="65"/>
+    </row>
+    <row r="154" spans="1:12" ht="107.25" customHeight="1">
+      <c r="A154" s="24"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="69"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="65"/>
+      <c r="K154" s="65"/>
+      <c r="L154" s="65"/>
+    </row>
+    <row r="155" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A155" s="24"/>
+      <c r="B155" s="72"/>
+      <c r="C155" s="73"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="69"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="65"/>
+      <c r="K155" s="65"/>
+      <c r="L155" s="65"/>
+    </row>
+    <row r="156" spans="1:12" ht="105.75" customHeight="1">
+      <c r="A156" s="24"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="69"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="69"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="65"/>
+      <c r="K156" s="65"/>
+      <c r="L156" s="65"/>
+    </row>
+    <row r="157" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A157" s="24"/>
+      <c r="B157" s="72"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="65"/>
+      <c r="K157" s="65"/>
+      <c r="L157" s="65"/>
+    </row>
+    <row r="158" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A158" s="24"/>
+      <c r="B158" s="72"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="69"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="65"/>
+      <c r="K158" s="65"/>
+      <c r="L158" s="65"/>
+    </row>
+    <row r="159" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A159" s="24"/>
+      <c r="B159" s="72"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="69"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="27"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="65"/>
+      <c r="K159" s="65"/>
+      <c r="L159" s="65"/>
+    </row>
+    <row r="160" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A160" s="24"/>
+      <c r="B160" s="72"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="69"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="65"/>
+      <c r="L160" s="65"/>
+    </row>
+    <row r="161" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A161" s="24"/>
+      <c r="B161" s="72"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="26"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="65"/>
+      <c r="K161" s="65"/>
+      <c r="L161" s="65"/>
+    </row>
+    <row r="162" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A162" s="24"/>
+      <c r="B162" s="72"/>
+      <c r="C162" s="73"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="69"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="26"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="65"/>
+      <c r="K162" s="65"/>
+      <c r="L162" s="65"/>
+    </row>
+    <row r="163" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A163" s="24"/>
+      <c r="B163" s="72"/>
+      <c r="C163" s="73"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="69"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="26"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="65"/>
+      <c r="K163" s="65"/>
+      <c r="L163" s="65"/>
+    </row>
+    <row r="164" spans="1:12" ht="59.25" customHeight="1">
+      <c r="A164" s="24"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="69"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="69"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="26"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="65"/>
+      <c r="K164" s="65"/>
+      <c r="L164" s="65"/>
+    </row>
+    <row r="165" spans="1:12" ht="81" customHeight="1">
+      <c r="A165" s="24"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="69"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="26"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="65"/>
+      <c r="K165" s="65"/>
+      <c r="L165" s="65"/>
+    </row>
+    <row r="166" spans="1:12" ht="89.25" customHeight="1">
+      <c r="A166" s="24"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="69"/>
+      <c r="F166" s="29"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="65"/>
+      <c r="K166" s="65"/>
+      <c r="L166" s="65"/>
+    </row>
+    <row r="167" spans="1:12" ht="76.5" customHeight="1">
+      <c r="A167" s="24"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="29"/>
+      <c r="G167" s="26"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="65"/>
+      <c r="K167" s="65"/>
+      <c r="L167" s="65"/>
+    </row>
+    <row r="168" spans="1:12" ht="76.5" customHeight="1">
+      <c r="A168" s="24"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="29"/>
+      <c r="G168" s="26"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="65"/>
+      <c r="K168" s="65"/>
+      <c r="L168" s="65"/>
+    </row>
+    <row r="169" spans="1:12" ht="96" customHeight="1">
+      <c r="A169" s="24"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="69"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="26"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="65"/>
+      <c r="K169" s="65"/>
+      <c r="L169" s="65"/>
+    </row>
+    <row r="170" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A170" s="24"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="73"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="26"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="65"/>
+      <c r="K170" s="65"/>
+      <c r="L170" s="65"/>
+    </row>
+    <row r="171" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A171" s="24"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="73"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="69"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="26"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="65"/>
+      <c r="K171" s="65"/>
+      <c r="L171" s="65"/>
+    </row>
+    <row r="172" spans="1:12" ht="77.25" customHeight="1">
+      <c r="A172" s="24"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="26"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="65"/>
+      <c r="K172" s="65"/>
+      <c r="L172" s="65"/>
+    </row>
+    <row r="173" spans="1:12" ht="40.5" customHeight="1">
+      <c r="A173" s="24"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="73"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="65"/>
+      <c r="K173" s="65"/>
+      <c r="L173" s="65"/>
+    </row>
+    <row r="174" spans="1:12" ht="40.5" customHeight="1">
+      <c r="A174" s="24"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="72"/>
+      <c r="E174" s="73"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="26"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="65"/>
+      <c r="K174" s="65"/>
+      <c r="L174" s="65"/>
+    </row>
+    <row r="175" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A175" s="24"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="69"/>
+      <c r="D175" s="72"/>
+      <c r="E175" s="73"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="26"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="65"/>
+      <c r="K175" s="65"/>
+      <c r="L175" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A12:L70">
+  <autoFilter ref="A12:L172">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
   </autoFilter>
-  <mergeCells count="182">
-    <mergeCell ref="J45:L45"/>
+  <mergeCells count="436">
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="B128:L128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="B130:L130"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B44:C44"/>
@@ -6220,24 +8642,24 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="J64:L64"/>
-    <mergeCell ref="J68:L68"/>
-    <mergeCell ref="J69:L69"/>
-    <mergeCell ref="J70:L70"/>
-    <mergeCell ref="J71:L71"/>
-    <mergeCell ref="J72:L72"/>
-    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J175:L175"/>
+    <mergeCell ref="J156:L156"/>
+    <mergeCell ref="J157:L157"/>
+    <mergeCell ref="J158:L158"/>
+    <mergeCell ref="J159:L159"/>
+    <mergeCell ref="J160:L160"/>
+    <mergeCell ref="J161:L161"/>
+    <mergeCell ref="J162:L162"/>
+    <mergeCell ref="J164:L164"/>
+    <mergeCell ref="J165:L165"/>
+    <mergeCell ref="J169:L169"/>
+    <mergeCell ref="J166:L166"/>
+    <mergeCell ref="J170:L170"/>
+    <mergeCell ref="J171:L171"/>
+    <mergeCell ref="J172:L172"/>
+    <mergeCell ref="J173:L173"/>
+    <mergeCell ref="J174:L174"/>
+    <mergeCell ref="J168:L168"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J29:L29"/>
@@ -6245,28 +8667,28 @@
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="J149:L149"/>
+    <mergeCell ref="J151:L151"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B16:C16"/>
@@ -6303,30 +8725,30 @@
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A19:L19"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="J152:L152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="J153:L153"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="J167:L167"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="A150:L150"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="J163:L163"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="J154:L154"/>
+    <mergeCell ref="J155:L155"/>
+    <mergeCell ref="B155:C155"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B35:C35"/>
@@ -6353,70 +8775,422 @@
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B124:L124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="B107:L107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B65:L65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B69:L69"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="J77:L77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="J78:L78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="J79:L79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="J80:L80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="J81:L81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="J82:L82"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="J84:L84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="J86:L86"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="J88:L88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="J89:L89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="J90:L90"/>
+    <mergeCell ref="J91:L91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="J93:L93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="J94:L94"/>
+    <mergeCell ref="J95:L95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="J96:L96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="J97:L97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="J98:L98"/>
+    <mergeCell ref="J99:L99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="J100:L100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="J101:L101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="J102:L102"/>
+    <mergeCell ref="J103:L103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="J105:L105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="J106:L106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="J109:L109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:L121"/>
+    <mergeCell ref="J55:L55"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="J64:L64"/>
+    <mergeCell ref="J66:L66"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="J70:L70"/>
+    <mergeCell ref="J71:L71"/>
+    <mergeCell ref="J72:L72"/>
+    <mergeCell ref="J74:L74"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
   </mergeCells>
-  <conditionalFormatting sqref="G14:G18 G20:G73">
-    <cfRule type="cellIs" dxfId="20" priority="673" operator="equal">
+  <conditionalFormatting sqref="G14:G18 G20:G50 G74 G131:G175 G52:G64 G66:G68 G70:G72">
+    <cfRule type="cellIs" dxfId="40" priority="713" operator="equal">
       <formula>"U"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="714" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="715" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="716" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="717" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G18 G20:G73">
-    <cfRule type="containsText" dxfId="15" priority="657" operator="containsText" text="P">
+  <conditionalFormatting sqref="G14:G18 G20:G50 G74 G131:G175 G52:G64 G66:G68 G70:G72">
+    <cfRule type="containsText" dxfId="35" priority="697" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="658" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="34" priority="698" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="659" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="33" priority="699" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="661" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="32" priority="701" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="662" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="31" priority="702" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="containsText" dxfId="10" priority="641" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="30" priority="681" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G76:G106">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G76:G106">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",G76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G76)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",G76)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108:G120 G122:G123">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G108:G120 G122:G123">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",G108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",G108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125:G127 G129">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G125:G127 G129">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",G125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",G125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="U - Untested_x000a_P - Passed_x000a_F - Failed_x000a_H - Hold_x000a_C - Cancel" sqref="G49:G73 G14:G18 G20:G47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="U - Untested_x000a_P - Passed_x000a_F - Failed_x000a_H - Hold_x000a_C - Cancel" sqref="G151:G175 G14:G18 G20:G50 G131:G149 G76:G106 G66:G68 G74 G52:G64 G108:G120 G122:G123 G125:G127 G129 G70:G72">
       <formula1>"U,P,F,H,C"</formula1>
     </dataValidation>
   </dataValidations>

--- a/BA/TestCase.xlsx
+++ b/BA/TestCase.xlsx
@@ -4,15 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="7875" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ROC" sheetId="3" r:id="rId1"/>
-    <sheet name="F001_TiepNhanYeuCau" sheetId="1" r:id="rId2"/>
+    <sheet name="Sumup" sheetId="6" r:id="rId2"/>
+    <sheet name="F001_TiepNhanYeuCau" sheetId="1" r:id="rId3"/>
+    <sheet name="F002_SoNhanMau" sheetId="4" r:id="rId4"/>
+    <sheet name="F003_SoChuyenMau" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">F001_TiepNhanYeuCau!$A$12:$L$172</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">F001_TiepNhanYeuCau!$A$1:$L$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">F001_TiepNhanYeuCau!$A$12:$L$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">F002_SoNhanMau!$A$12:$L$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">F003_SoChuyenMau!$A$12:$L$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">F001_TiepNhanYeuCau!$A$1:$L$175</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">F002_SoNhanMau!$A$1:$L$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">F003_SoChuyenMau!$A$1:$L$48</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ROC!$A$1:$AL$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -20,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="328">
   <si>
     <t>Untested</t>
   </si>
@@ -776,29 +783,6 @@
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Tên KH"
-3. Click button "Tạo"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Input some strings in vietnamese into field "Tên KH"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Input some strings in vietnamese into field "Người đại diện"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Người đại diện"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
 2. Input some strings into field "Mã số thuế"
 3. Other fields are filled correctly
 4. Click button "Lưu"</t>
@@ -811,19 +795,9 @@
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Mã số thuế"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
 2. Input some strings into field "Fax"
 3. Other fields are filled correctly
 4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. The input strings are accepted
-2. Data of "Phiếu yêu cầu" is saved</t>
   </si>
   <si>
     <t>1. Data of "Phiếu yêu cầu" is saved</t>
@@ -849,12 +823,6 @@
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
 2. Input numbers into field "Số lượng"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Số lượng"
 3. Other fields are filled correctly
 4. Click button "Lưu"</t>
   </si>
@@ -877,12 +845,6 @@
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Nơi lấy mẫu"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
 2. Input some strings in vietnamese into field "Nơi lấy mẫu"
 3. Other fields are filled correctly
 4. Click button "Lưu"</t>
@@ -901,30 +863,12 @@
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "SĐT"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
 2. Click on field "Ngày gửi mẫu/lấy mẫu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Ngày gửi mẫu/lấy mẫu"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Go to screen "Sửa phiếu yêu cầu"
 2. Click on file "Ngày trả mẫu"
 </t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Ngày trả mẫu"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
@@ -934,21 +878,7 @@
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Do not input anything into field "Địa chỉ"
-3. Other fields are filled correctly
-4. Click button "Lưu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
 2. Click button "Thêm mẫu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Open up screen "Thêm mẫu"</t>
-  </si>
-  <si>
-    <t>1. Go to screen "Sửa phiếu yêu cầu"
-2. Click on button "Xóa mẫu" of an item</t>
   </si>
   <si>
     <t>1. Go to screen "Sửa phiếu yêu cầu"
@@ -1224,6 +1154,452 @@
   </si>
   <si>
     <t>Initialize some basic test cases for F001</t>
+  </si>
+  <si>
+    <t>Check if button "Sửa phiếu" is active</t>
+  </si>
+  <si>
+    <t>Verify all fields needed to be input in screen "Sửa phiếu" are corresponding to "BM 14.01" (Document Specification)</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. All fields on this screen corresponds to "BM 14.01" (Document Specification)</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Tên KH" OR delete all strings in this field
+3. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. The input strings are accepted
+2. Successfully edit "Phiếu yêu cầu"
+3. Data of "Phiếu yêu cầu" is saved</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input new strings in vietnamese into field "Tên KH"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Input new strings in vietnamese into field "Người đại diện"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "Người đại diện"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "Mã số thuế"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "Số lượng"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "Nơi lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "SĐT"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "Ngày gửi mẫu/lấy mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything OR delete content in field "Ngày trả mẫu"
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Do not input anything into field "Địa chỉ" OR delete it's content
+3. Other fields are filled correctly
+4. Click button "Lưu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Input some strings in field "Kí hiệu mẫu Khác hàng"
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Input some strings in field "Vị trí lấy mẫu"
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Input some strings in field "Mô tả mẫu"
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Mô tả mẫu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Kí hiệu mẫu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Vị trí lấy mãu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Click on field "Chỉ tiêu yêu cầu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Leave field "Chỉ tiêu yêu cầu" empty
+4. All other fields are filled correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Click on field "Loại mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Open up screen "Thêm mẫu"
+3. Fill all fields correctly
+4. Click button "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. Show up warning message to confirm again before deleting</t>
+  </si>
+  <si>
+    <t>1. Go to screen "Sửa phiếu yêu cầu"
+2. Click on button "Xóa mẫu" of item "Mẫu"</t>
+  </si>
+  <si>
+    <t>1. Click button "Có" to confirm deleting
+2. That item "Mẫu" has been deleted from the list</t>
+  </si>
+  <si>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>15/3/2017</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Sổ nhận mẫu</t>
+  </si>
+  <si>
+    <t>Verify that each item "Sổ nhận mẫu" has its details to distinguish</t>
+  </si>
+  <si>
+    <t>1. Login with "Nhân viên giao nhận" account
+2. Select tab "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login with "Nhân viên giao nhận" account successfully on Chrome
+2. Select tab "Sổ nhận mẫu"
+</t>
+  </si>
+  <si>
+    <t>1. Login with "Nhân viên giao nhận" account successfully on Firefox
+2. Select tab "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>1. Login with "Nhân viên giao nhận" account successfully on IE11
+2. Select tab "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>1. Each item "Sô nhận mẫu" has own details(Số tt, Năm)</t>
+  </si>
+  <si>
+    <t>Verify that items "Sổ nhận mẫu" is sorted by recency</t>
+  </si>
+  <si>
+    <t>Verify that each item "Sổ nhận mẫu" has correct fields as design</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Sổ nhận mẫu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that search funtion works </t>
+  </si>
+  <si>
+    <t>1. Login with "Nhân viên giao nhận" account
+2. Select tab "Sổ nhận mẫu"
+3. Input information in search field</t>
+  </si>
+  <si>
+    <t>Tạo sổ mới</t>
+  </si>
+  <si>
+    <t>Verify that function "Tạo sổ mới" works correctly</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. List of items "Sổ nhận mẫu" is ordered by recency</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Item "Sổ nhận mẫu" has following columns: "Số phiếu", "Tên/DC Khách Hàng", "Mã Số", "Chỉ Tiêu Thử Nghiệm", "Ngày Nhận", "Ngày Trả KQ",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Ký nhận trả KQ", "Ký nhận trả tiền"</t>
+    </r>
+  </si>
+  <si>
+    <t>DS Sổ nhận mẫu</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Display items "Sổ nhận mẫu" which satisfies the search conditions</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Tạo sổ mới"</t>
+  </si>
+  <si>
+    <t>1. Pop up screen for inputting new information for new item "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>Verify that input fields in screen "Tạo sổ mới" are simiar with design specs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Tạo sổ mới"
+</t>
+  </si>
+  <si>
+    <t>1. Pop up screen "Tạo sổ mới"
+2. There must have fields: "Năm", "Từ tháng", "Đến tháng"</t>
+  </si>
+  <si>
+    <t>Verify that there are validations of input fields in screen "Tạo sỗ mới"</t>
+  </si>
+  <si>
+    <t>1. Pop up screen "Tạo sổ mới"
+2. Validate "Từ tháng" &lt; "Đến tháng".
+3. Validate "Sổ nhận mẫu" must not be duplicated(Example: Sổ(1/2015-3/2015) and Sổ(2/2015-5/2015) are duplicated</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Tạo sổ mới"
+3. Input required fields correctly
+4. Click button "Tạo"</t>
+  </si>
+  <si>
+    <t>1. New item "Sổ nhận mẫu" has been created with auto-generated "Số"</t>
+  </si>
+  <si>
+    <t>Verify that "Số" of "Sổ nhận mẫu" is auto-generated</t>
+  </si>
+  <si>
+    <t>Verify that button "Thoát" is active</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Tạo sổ mới"
+3. Input required fields correctly
+4. Click button "Thoát"</t>
+  </si>
+  <si>
+    <t>1. Cancel function "Tạo sổ mới"</t>
+  </si>
+  <si>
+    <t>Xóa sổ</t>
+  </si>
+  <si>
+    <t>Verify that button "Xóa sổ" is enabled</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Xóa sổ" of an item "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>1. Show up warning message for action deleting
+2. Click on button "Đồng ý" then that item "Sổ nhận mẫu" has been deleted</t>
+  </si>
+  <si>
+    <t>1. Show up warning message for action deleting
+2. Click on button "Thoát" then the action "Xóa sổ" will be cancelled</t>
+  </si>
+  <si>
+    <t>Verify that action "Xóa sổ" can be cancelled</t>
+  </si>
+  <si>
+    <t>Verify that button "In" is enabled</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "In" of an item "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>1. Open up print-page to review the print-version
+2. Click on button "Print" to perform print action</t>
+  </si>
+  <si>
+    <t>Verify that "Sổ nhận mẫu" must be print in form of BM14.3</t>
+  </si>
+  <si>
+    <t>1. Open up print-page to review the print-version
+2. Print-version must be similar to BM14.3</t>
+  </si>
+  <si>
+    <t>Thêm mẫu</t>
+  </si>
+  <si>
+    <t>Verify that button "Thêm mẫu" is active</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Thêm mẫu" of an item "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>Verify that data of items "Mẫu" was imported from items "Phiếu yêu cầu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Thêm mẫu" of an item "Sổ nhận mẫu"
+3. Then system opens up window "Thêm mẫu"</t>
+  </si>
+  <si>
+    <t>1. Open up window containing list of items "Mẫu"</t>
+  </si>
+  <si>
+    <t>1. Items "Mẫu" was taken form "Phiếu yêu cầu"
+2. The list will Exclude all items "Mẫu" which have been already added to "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>Verify that user can choose multiple items "Mẫu"</t>
+  </si>
+  <si>
+    <t>1. User can tick on multiple items which he wishes to choose</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Verify that button "Đồng ý" is active</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Thêm mẫu" of an item "Sổ nhận mẫu"
+3. Then system opens up window "Thêm mẫu"
+4. Complete choosing items
+5. Click on button "Đồng ý"</t>
+  </si>
+  <si>
+    <t>1. Chosen items "Mẫu" have been added to "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Click on button "Thêm mẫu" of an item "Sổ nhận mẫu"
+3. Then system opens up window "Thêm mẫu"
+4. Complete choosing items
+5. Click on button "Thoát"</t>
+  </si>
+  <si>
+    <t>1. Cancel action "Thêm mẫu"
+2. No item is added</t>
+  </si>
+  <si>
+    <t>Validate that table of item "Mẫu" contains information(columns) as design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Table containing items "Mẫu" has following columns: </t>
+  </si>
+  <si>
+    <t>Xóa mẫu</t>
+  </si>
+  <si>
+    <t>Verify that user can remove "Mẫu" from "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>1. Go to screen "DS Sổ nhận mẫu"
+2. Choose and open an item "Sổ nhận mẫu"
+3. In screen showing "Mẫu", click on button "Xóa mẫu" of an item "Mẫu"</t>
+  </si>
+  <si>
+    <t>1. Show up warning message to confirm
+2. Choose "Đồng ý" then that item "Mẫu" has been removed from chosen "Sổ nhận mẫu"</t>
+  </si>
+  <si>
+    <t>Verify that action "Xóa mẫu" can be cancelled</t>
+  </si>
+  <si>
+    <t>1. Show up warning message to confirm
+2. Choose "Thoát" then action "Xóa mẫu" has been cancelled</t>
+  </si>
+  <si>
+    <t>20/3/2017</t>
+  </si>
+  <si>
+    <t>15/03/2017</t>
+  </si>
+  <si>
+    <t>F002_SoNhanMau</t>
+  </si>
+  <si>
+    <t>Create test cases for F002</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Update test cases for F002</t>
+  </si>
+  <si>
+    <t>20/03/2017</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Project's Name</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>IER System</t>
+  </si>
+  <si>
+    <t>F003</t>
+  </si>
+  <si>
+    <t>DS Sổ chuyển mẫu</t>
   </si>
 </sst>
 </file>
@@ -2492,7 +2868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2963,20 @@
     <xf numFmtId="0" fontId="60" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2732,6 +3120,31 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="150">
@@ -2886,7 +3299,185 @@
     <cellStyle name="開発計画書スタイル" xfId="148"/>
     <cellStyle name="集計 2" xfId="149"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3222,6 +3813,20 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3525,7 +4130,7 @@
   <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:AD6"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15.75"/>
@@ -3541,18 +4146,18 @@
   <sheetData>
     <row r="1" spans="1:38" s="15" customFormat="1">
       <c r="A1" s="14"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
@@ -3580,61 +4185,61 @@
       <c r="AL1" s="9"/>
     </row>
     <row r="2" spans="1:38" s="15" customFormat="1" ht="30.75">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="15" customFormat="1">
       <c r="A3" s="11"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -3663,401 +4268,421 @@
     </row>
     <row r="4" spans="1:38" s="15" customFormat="1">
       <c r="A4" s="11"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="54" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="56"/>
-      <c r="AE4" s="57" t="s">
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AF4" s="58"/>
-      <c r="AG4" s="58"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="57" t="s">
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" s="59"/>
+      <c r="AJ4" s="63"/>
       <c r="AK4" s="12"/>
       <c r="AL4" s="13"/>
     </row>
     <row r="5" spans="1:38" s="15" customFormat="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="47"/>
-      <c r="AE5" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="51" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ5" s="55"/>
       <c r="AK5" s="12"/>
       <c r="AL5" s="13"/>
     </row>
     <row r="6" spans="1:38" s="15" customFormat="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="46">
+      <c r="B6" s="50">
         <v>42769</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="50"/>
-      <c r="AI6" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ6" s="51"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ6" s="55"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="13"/>
     </row>
     <row r="7" spans="1:38" s="15" customFormat="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="46">
+      <c r="B7" s="50">
         <v>42981</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="47"/>
-      <c r="AE7" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ7" s="51"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ7" s="55"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="13"/>
     </row>
     <row r="8" spans="1:38" s="15" customFormat="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="47"/>
-      <c r="AE8" s="48"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="50"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
+      <c r="B8" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="51"/>
+      <c r="AD8" s="51"/>
+      <c r="AE8" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ8" s="55"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="13"/>
     </row>
     <row r="9" spans="1:38" s="15" customFormat="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="47"/>
-      <c r="AE9" s="60"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
+      <c r="B9" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+      <c r="AE9" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ9" s="55"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="13"/>
     </row>
     <row r="10" spans="1:38" s="15" customFormat="1">
       <c r="A10" s="11"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="47"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="65"/>
+      <c r="AG10" s="65"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="13"/>
     </row>
     <row r="11" spans="1:38" s="15" customFormat="1">
       <c r="A11" s="11"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="48"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="55"/>
+      <c r="AJ11" s="55"/>
       <c r="AK11" s="12"/>
       <c r="AL11" s="13"/>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="11"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="47"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
       <c r="AK12" s="12"/>
       <c r="AL12" s="13"/>
     </row>
@@ -5310,10 +5935,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="101"/>
+      <c r="I1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="106"/>
+      <c r="L1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="101"/>
+      <c r="I2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="106"/>
+      <c r="L2" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="19"/>
+      <c r="B6" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="5">
+        <f>SUM(F001_TiepNhanYeuCau!D4,F002_SoNhanMau!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="19"/>
+      <c r="B7" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="6">
+        <f>SUM(F001_TiepNhanYeuCau!D5,F002_SoNhanMau!D5)</f>
+        <v>120</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="19"/>
+      <c r="B8" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="1">
+        <f>SUM(F001_TiepNhanYeuCau!D6,F002_SoNhanMau!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="19"/>
+      <c r="B9" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="97"/>
+      <c r="D9" s="2">
+        <f>SUM(F001_TiepNhanYeuCau!D7,F002_SoNhanMau!D7)</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="3">
+        <f>SUM(F001_TiepNhanYeuCau!D8,F002_SoNhanMau!D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="97"/>
+      <c r="D11" s="4">
+        <f>SUM(F001_TiepNhanYeuCau!D9,F002_SoNhanMau!D9)</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="C12" s="104"/>
+      <c r="D12" s="103"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="104"/>
+      <c r="D13" s="103"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="104"/>
+      <c r="D14" s="103"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" s="104"/>
+      <c r="D15" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D10">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",D6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A75" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5337,17 +6197,17 @@
       <c r="A1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="87"/>
+      <c r="H1" s="91"/>
       <c r="I1" s="22" t="s">
         <v>36</v>
       </c>
@@ -5363,17 +6223,17 @@
       <c r="A2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="86" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="87"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="23" t="s">
         <v>84</v>
       </c>
@@ -5381,8 +6241,8 @@
         <v>18</v>
       </c>
       <c r="K2" s="28"/>
-      <c r="L2" s="23">
-        <v>42981</v>
+      <c r="L2" s="23" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5400,7 +6260,7 @@
       </c>
       <c r="D5" s="6">
         <f>COUNTIF($G$3:$G$188,"U")</f>
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -5436,21 +6296,21 @@
       </c>
       <c r="D9" s="4">
         <f>SUM(D$1:$D8)</f>
-        <v>56</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="88" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="18" t="s">
         <v>8</v>
       </c>
@@ -5463,40 +6323,40 @@
       <c r="I12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="93" t="s">
+      <c r="J12" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="81"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
       <c r="A14" s="32">
         <v>1</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="73"/>
-      <c r="D14" s="68" t="s">
+      <c r="C14" s="77"/>
+      <c r="D14" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="73"/>
       <c r="F14" s="25" t="s">
         <v>28</v>
       </c>
@@ -5505,22 +6365,22 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
       <c r="A15" s="32">
         <v>2</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="68" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="73"/>
       <c r="F15" s="25" t="s">
         <v>28</v>
       </c>
@@ -5529,22 +6389,22 @@
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
       <c r="A16" s="32">
         <v>3</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="69"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="25" t="s">
         <v>28</v>
       </c>
@@ -5553,22 +6413,22 @@
       </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="32">
         <v>4</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="69"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="25" t="s">
         <v>44</v>
       </c>
@@ -5577,22 +6437,22 @@
       </c>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1">
       <c r="A18" s="32">
         <v>5</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="68" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="69"/>
+      <c r="E18" s="73"/>
       <c r="F18" s="25" t="s">
         <v>40</v>
       </c>
@@ -5601,38 +6461,38 @@
       </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="81"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="1:12" ht="105.75" customHeight="1">
       <c r="A20" s="32">
         <v>6</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B20" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="68" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="69"/>
+      <c r="E20" s="73"/>
       <c r="F20" s="31" t="s">
         <v>47</v>
       </c>
@@ -5641,22 +6501,22 @@
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A21" s="32">
         <v>7</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="68" t="s">
+      <c r="C21" s="77"/>
+      <c r="D21" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="69"/>
+      <c r="E21" s="73"/>
       <c r="F21" s="31" t="s">
         <v>47</v>
       </c>
@@ -5665,22 +6525,22 @@
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
     </row>
     <row r="22" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A22" s="32">
         <v>8</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="68" t="s">
+      <c r="C22" s="77"/>
+      <c r="D22" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="69"/>
+      <c r="E22" s="73"/>
       <c r="F22" s="25" t="s">
         <v>50</v>
       </c>
@@ -5689,22 +6549,22 @@
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
     </row>
     <row r="23" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A23" s="32">
         <v>9</v>
       </c>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="68" t="s">
+      <c r="C23" s="77"/>
+      <c r="D23" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="69"/>
+      <c r="E23" s="73"/>
       <c r="F23" s="25" t="s">
         <v>58</v>
       </c>
@@ -5713,22 +6573,22 @@
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
     </row>
     <row r="24" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A24" s="32">
         <v>10</v>
       </c>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="68" t="s">
+      <c r="C24" s="77"/>
+      <c r="D24" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="69"/>
+      <c r="E24" s="73"/>
       <c r="F24" s="25" t="s">
         <v>54</v>
       </c>
@@ -5737,22 +6597,22 @@
       </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" s="20" customFormat="1" ht="107.25" customHeight="1">
       <c r="A25" s="32">
         <v>11</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="68" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="73"/>
       <c r="F25" s="25" t="s">
         <v>54</v>
       </c>
@@ -5761,22 +6621,22 @@
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
     </row>
     <row r="26" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1">
       <c r="A26" s="32">
         <v>12</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="68" t="s">
+      <c r="C26" s="77"/>
+      <c r="D26" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="E26" s="69"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="25" t="s">
         <v>57</v>
       </c>
@@ -5785,22 +6645,22 @@
       </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
     </row>
     <row r="27" spans="1:12" s="20" customFormat="1" ht="102.75" customHeight="1">
       <c r="A27" s="32">
         <v>13</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="68" t="s">
+      <c r="C27" s="77"/>
+      <c r="D27" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="69"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="25" t="s">
         <v>59</v>
       </c>
@@ -5809,22 +6669,22 @@
       </c>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
     </row>
     <row r="28" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
       <c r="A28" s="32">
         <v>14</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="68" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="69"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="25" t="s">
         <v>57</v>
       </c>
@@ -5833,22 +6693,22 @@
       </c>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
     </row>
     <row r="29" spans="1:12" ht="93.75" customHeight="1">
       <c r="A29" s="32">
         <v>15</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="68" t="s">
+      <c r="C29" s="77"/>
+      <c r="D29" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="69"/>
+      <c r="E29" s="73"/>
       <c r="F29" s="25" t="s">
         <v>57</v>
       </c>
@@ -5857,22 +6717,22 @@
       </c>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
     </row>
     <row r="30" spans="1:12" ht="81" customHeight="1">
       <c r="A30" s="32">
         <v>16</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="68" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="69"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="25" t="s">
         <v>63</v>
       </c>
@@ -5881,22 +6741,22 @@
       </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
     </row>
     <row r="31" spans="1:12" ht="97.5" customHeight="1">
       <c r="A31" s="32">
         <v>17</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="68" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="69"/>
+      <c r="E31" s="73"/>
       <c r="F31" s="25" t="s">
         <v>57</v>
       </c>
@@ -5905,22 +6765,22 @@
       </c>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
     </row>
     <row r="32" spans="1:12" ht="90.75" customHeight="1">
       <c r="A32" s="32">
         <v>18</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="68" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="69"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="25" t="s">
         <v>57</v>
       </c>
@@ -5929,22 +6789,22 @@
       </c>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
     </row>
     <row r="33" spans="1:12" ht="98.25" customHeight="1">
       <c r="A33" s="32">
         <v>19</v>
       </c>
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="68" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="69"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="25" t="s">
         <v>67</v>
       </c>
@@ -5953,22 +6813,22 @@
       </c>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
     </row>
     <row r="34" spans="1:12" ht="88.5" customHeight="1">
       <c r="A34" s="32">
         <v>20</v>
       </c>
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="68" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="69"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="25" t="s">
         <v>57</v>
       </c>
@@ -5977,22 +6837,22 @@
       </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="65"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
     </row>
     <row r="35" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
       <c r="A35" s="32">
         <v>21</v>
       </c>
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="68" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="69"/>
+      <c r="E35" s="73"/>
       <c r="F35" s="25" t="s">
         <v>57</v>
       </c>
@@ -6001,22 +6861,22 @@
       </c>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="80"/>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" ht="120.75" customHeight="1">
       <c r="A36" s="32">
         <v>22</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="68" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="69"/>
+      <c r="E36" s="73"/>
       <c r="F36" s="25" t="s">
         <v>67</v>
       </c>
@@ -6025,22 +6885,22 @@
       </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="76"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="80"/>
     </row>
     <row r="37" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A37" s="32">
         <v>23</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="68" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="69"/>
+      <c r="E37" s="73"/>
       <c r="F37" s="25" t="s">
         <v>57</v>
       </c>
@@ -6049,22 +6909,22 @@
       </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="76"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="80"/>
     </row>
     <row r="38" spans="1:12" s="20" customFormat="1" ht="109.5" customHeight="1">
       <c r="A38" s="32">
         <v>24</v>
       </c>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="68" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="73"/>
       <c r="F38" s="25" t="s">
         <v>57</v>
       </c>
@@ -6073,22 +6933,22 @@
       </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="76"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="80"/>
     </row>
     <row r="39" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A39" s="32">
         <v>25</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="73"/>
-      <c r="D39" s="68" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="E39" s="69"/>
+      <c r="E39" s="73"/>
       <c r="F39" s="25" t="s">
         <v>50</v>
       </c>
@@ -6097,22 +6957,22 @@
       </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="76"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="80"/>
     </row>
     <row r="40" spans="1:12" s="20" customFormat="1" ht="91.5" customHeight="1">
       <c r="A40" s="32">
         <v>26</v>
       </c>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="73"/>
-      <c r="D40" s="68" t="s">
+      <c r="C40" s="77"/>
+      <c r="D40" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="E40" s="69"/>
+      <c r="E40" s="73"/>
       <c r="F40" s="25" t="s">
         <v>58</v>
       </c>
@@ -6121,22 +6981,22 @@
       </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="76"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="80"/>
     </row>
     <row r="41" spans="1:12" s="20" customFormat="1" ht="99" customHeight="1">
       <c r="A41" s="32">
         <v>27</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="68" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="73"/>
       <c r="F41" s="25" t="s">
         <v>54</v>
       </c>
@@ -6145,22 +7005,22 @@
       </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="76"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="80"/>
     </row>
     <row r="42" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
       <c r="A42" s="32">
         <v>28</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="73"/>
-      <c r="D42" s="68" t="s">
+      <c r="C42" s="77"/>
+      <c r="D42" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="69"/>
+      <c r="E42" s="73"/>
       <c r="F42" s="25" t="s">
         <v>83</v>
       </c>
@@ -6169,22 +7029,22 @@
       </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="80"/>
     </row>
     <row r="43" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A43" s="32">
         <v>29</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="68" t="s">
+      <c r="C43" s="77"/>
+      <c r="D43" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="69"/>
+      <c r="E43" s="73"/>
       <c r="F43" s="25" t="s">
         <v>57</v>
       </c>
@@ -6193,22 +7053,22 @@
       </c>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="80"/>
     </row>
     <row r="44" spans="1:12" s="20" customFormat="1" ht="108" customHeight="1">
       <c r="A44" s="32">
         <v>30</v>
       </c>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="68" t="s">
+      <c r="C44" s="77"/>
+      <c r="D44" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E44" s="69"/>
+      <c r="E44" s="73"/>
       <c r="F44" s="25" t="s">
         <v>83</v>
       </c>
@@ -6217,22 +7077,22 @@
       </c>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="76"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="80"/>
     </row>
     <row r="45" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A45" s="32">
         <v>31</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="68" t="s">
+      <c r="C45" s="77"/>
+      <c r="D45" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="E45" s="69"/>
+      <c r="E45" s="73"/>
       <c r="F45" s="25" t="s">
         <v>87</v>
       </c>
@@ -6241,22 +7101,22 @@
       </c>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="76"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="80"/>
     </row>
     <row r="46" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A46" s="32">
         <v>32</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="68" t="s">
+      <c r="C46" s="77"/>
+      <c r="D46" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="E46" s="69"/>
+      <c r="E46" s="73"/>
       <c r="F46" s="25" t="s">
         <v>92</v>
       </c>
@@ -6265,22 +7125,22 @@
       </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="65"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="69"/>
     </row>
     <row r="47" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A47" s="32">
         <v>33</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="68" t="s">
+      <c r="C47" s="77"/>
+      <c r="D47" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="E47" s="69"/>
+      <c r="E47" s="73"/>
       <c r="F47" s="25" t="s">
         <v>116</v>
       </c>
@@ -6289,22 +7149,22 @@
       </c>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
     </row>
     <row r="48" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A48" s="32">
         <v>34</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="68" t="s">
+      <c r="C48" s="77"/>
+      <c r="D48" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E48" s="69"/>
+      <c r="E48" s="73"/>
       <c r="F48" s="25" t="s">
         <v>113</v>
       </c>
@@ -6313,22 +7173,22 @@
       </c>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
     </row>
     <row r="49" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A49" s="32">
         <v>35</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="68" t="s">
+      <c r="C49" s="77"/>
+      <c r="D49" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="E49" s="69"/>
+      <c r="E49" s="73"/>
       <c r="F49" s="25" t="s">
         <v>57</v>
       </c>
@@ -6337,22 +7197,22 @@
       </c>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
     </row>
     <row r="50" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A50" s="32">
         <v>36</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="68" t="s">
+      <c r="C50" s="77"/>
+      <c r="D50" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="69"/>
+      <c r="E50" s="73"/>
       <c r="F50" s="25" t="s">
         <v>123</v>
       </c>
@@ -6361,38 +7221,38 @@
       </c>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
+      <c r="J50" s="69"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="69"/>
     </row>
     <row r="51" spans="1:12" ht="24.75" customHeight="1">
       <c r="A51" s="36"/>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="71"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="75"/>
     </row>
     <row r="52" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A52" s="32">
         <v>37</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="73"/>
-      <c r="D52" s="68" t="s">
+      <c r="C52" s="77"/>
+      <c r="D52" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="69"/>
+      <c r="E52" s="73"/>
       <c r="F52" s="25" t="s">
         <v>127</v>
       </c>
@@ -6401,22 +7261,22 @@
       </c>
       <c r="H52" s="27"/>
       <c r="I52" s="27"/>
-      <c r="J52" s="65"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
     </row>
     <row r="53" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A53" s="32">
         <v>38</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="68" t="s">
+      <c r="C53" s="77"/>
+      <c r="D53" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="69"/>
+      <c r="E53" s="73"/>
       <c r="F53" s="25" t="s">
         <v>130</v>
       </c>
@@ -6425,414 +7285,414 @@
       </c>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
     </row>
     <row r="54" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A54" s="32">
         <v>39</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B54" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="69"/>
-      <c r="D54" s="68" t="s">
-        <v>198</v>
-      </c>
-      <c r="E54" s="69"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="73"/>
       <c r="F54" s="37" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="65"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="69"/>
     </row>
     <row r="55" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
       <c r="A55" s="32">
         <v>40</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="69"/>
-      <c r="D55" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="E55" s="69"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="73"/>
       <c r="F55" s="37" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
     </row>
     <row r="56" spans="1:12" s="20" customFormat="1" ht="90.75" customHeight="1">
       <c r="A56" s="32">
         <v>41</v>
       </c>
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="69"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="73"/>
       <c r="F56" s="37" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
+      <c r="J56" s="69"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="69"/>
     </row>
     <row r="57" spans="1:12" s="20" customFormat="1" ht="97.5" customHeight="1">
       <c r="A57" s="32">
         <v>42</v>
       </c>
-      <c r="B57" s="68" t="s">
+      <c r="B57" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="69"/>
-      <c r="D57" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="E57" s="69"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="73"/>
       <c r="F57" s="37" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
+      <c r="J57" s="69"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
     </row>
     <row r="58" spans="1:12" s="20" customFormat="1" ht="95.25" customHeight="1">
       <c r="A58" s="32">
         <v>43</v>
       </c>
-      <c r="B58" s="68" t="s">
+      <c r="B58" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="69"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="72" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="73"/>
       <c r="F58" s="37" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
-      <c r="L58" s="65"/>
+      <c r="J58" s="69"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="69"/>
     </row>
     <row r="59" spans="1:12" s="20" customFormat="1" ht="78" customHeight="1">
       <c r="A59" s="32">
         <v>44</v>
       </c>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="E59" s="69"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="73"/>
       <c r="F59" s="37" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
-      <c r="J59" s="65"/>
-      <c r="K59" s="65"/>
-      <c r="L59" s="65"/>
+      <c r="J59" s="69"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="69"/>
     </row>
     <row r="60" spans="1:12" s="20" customFormat="1" ht="46.5" customHeight="1">
       <c r="A60" s="32">
         <v>45</v>
       </c>
-      <c r="B60" s="68" t="s">
+      <c r="B60" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="69"/>
-      <c r="D60" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="69"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E60" s="73"/>
       <c r="F60" s="37" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="65"/>
+      <c r="J60" s="69"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="69"/>
     </row>
     <row r="61" spans="1:12" s="20" customFormat="1" ht="73.5" customHeight="1">
       <c r="A61" s="32">
         <v>46</v>
       </c>
-      <c r="B61" s="68" t="s">
+      <c r="B61" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="69"/>
-      <c r="D61" s="68" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="69"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="72" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="73"/>
       <c r="F61" s="37" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="65"/>
-      <c r="L61" s="65"/>
+      <c r="J61" s="69"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="69"/>
     </row>
     <row r="62" spans="1:12" s="20" customFormat="1" ht="61.5" customHeight="1">
       <c r="A62" s="32">
         <v>47</v>
       </c>
-      <c r="B62" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="E62" s="69"/>
+      <c r="B62" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="71"/>
+      <c r="D62" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="73"/>
       <c r="F62" s="37" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
-      <c r="J62" s="65"/>
-      <c r="K62" s="65"/>
-      <c r="L62" s="65"/>
+      <c r="J62" s="69"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
     </row>
     <row r="63" spans="1:12" s="20" customFormat="1" ht="75" customHeight="1">
       <c r="A63" s="32">
         <v>48</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="69"/>
+      <c r="C63" s="71"/>
+      <c r="D63" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="73"/>
       <c r="F63" s="37" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H63" s="27"/>
       <c r="I63" s="27"/>
-      <c r="J63" s="65"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="65"/>
+      <c r="J63" s="69"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="64" spans="1:12" s="20" customFormat="1" ht="69" customHeight="1">
       <c r="A64" s="32">
         <v>49</v>
       </c>
-      <c r="B64" s="66" t="s">
+      <c r="B64" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="69"/>
+      <c r="C64" s="71"/>
+      <c r="D64" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="E64" s="73"/>
       <c r="F64" s="37" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
-      <c r="J64" s="65"/>
-      <c r="K64" s="65"/>
-      <c r="L64" s="65"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="69"/>
     </row>
     <row r="65" spans="1:12" ht="24.75" customHeight="1">
       <c r="A65" s="36"/>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
-      <c r="L65" s="71"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="75"/>
     </row>
     <row r="66" spans="1:12" s="20" customFormat="1" ht="49.5" customHeight="1">
       <c r="A66" s="32">
         <v>50</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68" t="s">
+      <c r="C66" s="71"/>
+      <c r="D66" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="69"/>
+      <c r="E66" s="73"/>
       <c r="F66" s="37" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="65"/>
+      <c r="J66" s="69"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="69"/>
     </row>
     <row r="67" spans="1:12" s="20" customFormat="1" ht="68.25" customHeight="1">
       <c r="A67" s="32">
         <v>51</v>
       </c>
-      <c r="B67" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="69"/>
+      <c r="B67" s="70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="71"/>
+      <c r="D67" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="73"/>
       <c r="F67" s="37" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="65"/>
-      <c r="L67" s="65"/>
+      <c r="J67" s="69"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="69"/>
     </row>
     <row r="68" spans="1:12" s="20" customFormat="1" ht="60" customHeight="1">
       <c r="A68" s="32">
         <v>52</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="E68" s="69"/>
+      <c r="C68" s="71"/>
+      <c r="D68" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="73"/>
       <c r="F68" s="37" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
-      <c r="J68" s="65"/>
-      <c r="K68" s="65"/>
-      <c r="L68" s="65"/>
+      <c r="J68" s="69"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
     </row>
     <row r="69" spans="1:12" ht="24.75" customHeight="1">
       <c r="A69" s="36"/>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="74" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-      <c r="J69" s="70"/>
-      <c r="K69" s="70"/>
-      <c r="L69" s="71"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="75"/>
     </row>
     <row r="70" spans="1:12" s="20" customFormat="1" ht="59.25" customHeight="1">
       <c r="A70" s="32">
         <v>53</v>
       </c>
-      <c r="B70" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68" t="s">
+      <c r="B70" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="71"/>
+      <c r="D70" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="E70" s="69"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="37" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
+      <c r="J70" s="69"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="69"/>
     </row>
     <row r="71" spans="1:12" s="20" customFormat="1" ht="64.5" customHeight="1">
       <c r="A71" s="32">
         <v>54</v>
       </c>
-      <c r="B71" s="66" t="s">
+      <c r="B71" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="67"/>
-      <c r="D71" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" s="69"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E71" s="73"/>
       <c r="F71" s="37" t="s">
         <v>57</v>
       </c>
@@ -6841,22 +7701,22 @@
       </c>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
+      <c r="J71" s="69"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="69"/>
     </row>
     <row r="72" spans="1:12" s="20" customFormat="1" ht="62.25" customHeight="1">
       <c r="A72" s="32">
         <v>55</v>
       </c>
-      <c r="B72" s="66" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" s="67"/>
-      <c r="D72" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72" s="69"/>
+      <c r="B72" s="70" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="71"/>
+      <c r="D72" s="72" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="73"/>
       <c r="F72" s="37" t="s">
         <v>57</v>
       </c>
@@ -6865,1088 +7725,1306 @@
       </c>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
+      <c r="J72" s="69"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="69"/>
     </row>
     <row r="73" spans="1:12" ht="24.75" customHeight="1">
       <c r="A73" s="36"/>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="71"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="75"/>
     </row>
     <row r="74" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
       <c r="A74" s="32">
         <v>56</v>
       </c>
-      <c r="B74" s="66" t="s">
+      <c r="B74" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68" t="s">
+      <c r="C74" s="71"/>
+      <c r="D74" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="69"/>
+      <c r="E74" s="73"/>
       <c r="F74" s="37" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G74" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H74" s="27"/>
       <c r="I74" s="27"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="79" t="s">
+      <c r="A75" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
-      <c r="K75" s="80"/>
-      <c r="L75" s="81"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+      <c r="G75" s="84"/>
+      <c r="H75" s="84"/>
+      <c r="I75" s="84"/>
+      <c r="J75" s="84"/>
+      <c r="K75" s="84"/>
+      <c r="L75" s="85"/>
     </row>
     <row r="76" spans="1:12" ht="105.75" customHeight="1">
-      <c r="A76" s="40"/>
-      <c r="B76" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76" s="69"/>
-      <c r="D76" s="68" t="s">
+      <c r="A76" s="32">
+        <v>57</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="73"/>
+      <c r="D76" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="69"/>
+      <c r="E76" s="73"/>
       <c r="F76" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="G76" s="26"/>
+      <c r="G76" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="69"/>
     </row>
     <row r="77" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A77" s="40"/>
-      <c r="B77" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="68" t="s">
+      <c r="A77" s="32">
+        <v>58</v>
+      </c>
+      <c r="B77" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="77"/>
+      <c r="D77" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="69"/>
+      <c r="E77" s="73"/>
       <c r="F77" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G77" s="26"/>
+        <v>222</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
     </row>
     <row r="78" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A78" s="40"/>
-      <c r="B78" s="72" t="s">
+      <c r="A78" s="32">
+        <v>59</v>
+      </c>
+      <c r="B78" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="68" t="s">
+      <c r="C78" s="77"/>
+      <c r="D78" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="69"/>
+      <c r="E78" s="73"/>
       <c r="F78" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G78" s="26"/>
+      <c r="G78" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
+      <c r="J78" s="69"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
     </row>
     <row r="79" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="72" t="s">
+      <c r="A79" s="32">
+        <v>60</v>
+      </c>
+      <c r="B79" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="68" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" s="69"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="73"/>
       <c r="F79" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G79" s="26"/>
+      <c r="G79" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
+      <c r="J79" s="69"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="69"/>
     </row>
     <row r="80" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A80" s="40"/>
-      <c r="B80" s="72" t="s">
+      <c r="A80" s="32">
+        <v>61</v>
+      </c>
+      <c r="B80" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="E80" s="69"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="73"/>
       <c r="F80" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G80" s="26"/>
+        <v>224</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
     </row>
     <row r="81" spans="1:12" s="20" customFormat="1" ht="107.25" customHeight="1">
-      <c r="A81" s="40"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="32">
+        <v>62</v>
+      </c>
+      <c r="B81" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E81" s="69"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="73"/>
       <c r="F81" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G81" s="26"/>
+        <v>224</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
     </row>
     <row r="82" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1">
-      <c r="A82" s="40"/>
-      <c r="B82" s="72" t="s">
+      <c r="A82" s="32">
+        <v>63</v>
+      </c>
+      <c r="B82" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="68" t="s">
+      <c r="C82" s="77"/>
+      <c r="D82" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="73"/>
+      <c r="F82" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="E82" s="69"/>
-      <c r="F82" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G82" s="26"/>
+      <c r="G82" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
     </row>
     <row r="83" spans="1:12" s="20" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A83" s="40"/>
-      <c r="B83" s="72" t="s">
+      <c r="A83" s="32">
+        <v>64</v>
+      </c>
+      <c r="B83" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E83" s="69"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="E83" s="73"/>
       <c r="F83" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G83" s="26"/>
+      <c r="G83" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
+      <c r="J83" s="69"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
     </row>
     <row r="84" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A84" s="40"/>
-      <c r="B84" s="72" t="s">
+      <c r="A84" s="32">
+        <v>65</v>
+      </c>
+      <c r="B84" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" s="69"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" s="73"/>
       <c r="F84" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G84" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H84" s="27"/>
       <c r="I84" s="27"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
+      <c r="J84" s="69"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
     </row>
     <row r="85" spans="1:12" ht="93.75" customHeight="1">
-      <c r="A85" s="40"/>
-      <c r="B85" s="72" t="s">
+      <c r="A85" s="32">
+        <v>66</v>
+      </c>
+      <c r="B85" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="69"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="E85" s="73"/>
       <c r="F85" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G85" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
     </row>
     <row r="86" spans="1:12" ht="81" customHeight="1">
-      <c r="A86" s="40"/>
-      <c r="B86" s="72" t="s">
+      <c r="A86" s="32">
+        <v>67</v>
+      </c>
+      <c r="B86" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="68" t="s">
-        <v>169</v>
-      </c>
-      <c r="E86" s="69"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" s="73"/>
       <c r="F86" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G86" s="26"/>
+      <c r="G86" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
+      <c r="J86" s="69"/>
+      <c r="K86" s="69"/>
+      <c r="L86" s="69"/>
     </row>
     <row r="87" spans="1:12" ht="97.5" customHeight="1">
-      <c r="A87" s="40"/>
-      <c r="B87" s="72" t="s">
+      <c r="A87" s="32">
+        <v>68</v>
+      </c>
+      <c r="B87" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" s="69"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E87" s="73"/>
       <c r="F87" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G87" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
+      <c r="J87" s="69"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="69"/>
     </row>
     <row r="88" spans="1:12" ht="90.75" customHeight="1">
-      <c r="A88" s="40"/>
-      <c r="B88" s="72" t="s">
+      <c r="A88" s="32">
+        <v>69</v>
+      </c>
+      <c r="B88" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="73"/>
-      <c r="D88" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="E88" s="69"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E88" s="73"/>
       <c r="F88" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G88" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" ht="98.25" customHeight="1">
-      <c r="A89" s="40"/>
-      <c r="B89" s="72" t="s">
+      <c r="A89" s="32">
+        <v>70</v>
+      </c>
+      <c r="B89" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="E89" s="69"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="E89" s="73"/>
       <c r="F89" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G89" s="26"/>
+      <c r="G89" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
     </row>
     <row r="90" spans="1:12" ht="88.5" customHeight="1">
-      <c r="A90" s="40"/>
-      <c r="B90" s="72" t="s">
+      <c r="A90" s="32">
+        <v>71</v>
+      </c>
+      <c r="B90" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C90" s="73"/>
-      <c r="D90" s="68" t="s">
-        <v>175</v>
-      </c>
-      <c r="E90" s="69"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="72" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" s="73"/>
       <c r="F90" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G90" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H90" s="27"/>
       <c r="I90" s="27"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
+      <c r="J90" s="69"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
     </row>
     <row r="91" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A91" s="40"/>
-      <c r="B91" s="72" t="s">
+      <c r="A91" s="32">
+        <v>72</v>
+      </c>
+      <c r="B91" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" s="69"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E91" s="73"/>
       <c r="F91" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G91" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H91" s="27"/>
       <c r="I91" s="27"/>
-      <c r="J91" s="74"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="76"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="79"/>
+      <c r="L91" s="80"/>
     </row>
     <row r="92" spans="1:12" s="20" customFormat="1" ht="120.75" customHeight="1">
-      <c r="A92" s="40"/>
-      <c r="B92" s="72" t="s">
+      <c r="A92" s="32">
+        <v>73</v>
+      </c>
+      <c r="B92" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="E92" s="69"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E92" s="73"/>
       <c r="F92" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="G92" s="26"/>
+      <c r="G92" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H92" s="27"/>
       <c r="I92" s="27"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="75"/>
-      <c r="L92" s="76"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="79"/>
+      <c r="L92" s="80"/>
     </row>
     <row r="93" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A93" s="40"/>
-      <c r="B93" s="72" t="s">
+      <c r="A93" s="32">
+        <v>74</v>
+      </c>
+      <c r="B93" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="C93" s="73"/>
-      <c r="D93" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="E93" s="69"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="73"/>
       <c r="F93" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G93" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H93" s="27"/>
       <c r="I93" s="27"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="76"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="79"/>
+      <c r="L93" s="80"/>
     </row>
     <row r="94" spans="1:12" s="20" customFormat="1" ht="109.5" customHeight="1">
-      <c r="A94" s="40"/>
-      <c r="B94" s="72" t="s">
+      <c r="A94" s="32">
+        <v>75</v>
+      </c>
+      <c r="B94" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C94" s="73"/>
-      <c r="D94" s="68" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="69"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="73"/>
       <c r="F94" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G94" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H94" s="27"/>
       <c r="I94" s="27"/>
-      <c r="J94" s="74"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="76"/>
+      <c r="J94" s="78"/>
+      <c r="K94" s="79"/>
+      <c r="L94" s="80"/>
     </row>
     <row r="95" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A95" s="40"/>
-      <c r="B95" s="72" t="s">
+      <c r="A95" s="32">
+        <v>76</v>
+      </c>
+      <c r="B95" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E95" s="69"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="72" t="s">
+        <v>172</v>
+      </c>
+      <c r="E95" s="73"/>
       <c r="F95" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G95" s="26"/>
+      <c r="G95" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H95" s="27"/>
       <c r="I95" s="27"/>
-      <c r="J95" s="74"/>
-      <c r="K95" s="75"/>
-      <c r="L95" s="76"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="79"/>
+      <c r="L95" s="80"/>
     </row>
     <row r="96" spans="1:12" s="20" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A96" s="40"/>
-      <c r="B96" s="72" t="s">
+      <c r="A96" s="32">
+        <v>77</v>
+      </c>
+      <c r="B96" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E96" s="69"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="E96" s="73"/>
       <c r="F96" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G96" s="26"/>
+      <c r="G96" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H96" s="27"/>
       <c r="I96" s="27"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="76"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="79"/>
+      <c r="L96" s="80"/>
     </row>
     <row r="97" spans="1:12" s="20" customFormat="1" ht="99" customHeight="1">
-      <c r="A97" s="40"/>
-      <c r="B97" s="72" t="s">
+      <c r="A97" s="32">
+        <v>78</v>
+      </c>
+      <c r="B97" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C97" s="73"/>
-      <c r="D97" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="E97" s="69"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="73"/>
       <c r="F97" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="G97" s="26"/>
+        <v>224</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H97" s="27"/>
       <c r="I97" s="27"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="76"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="80"/>
     </row>
     <row r="98" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A98" s="40"/>
-      <c r="B98" s="72" t="s">
+      <c r="A98" s="32">
+        <v>79</v>
+      </c>
+      <c r="B98" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="73"/>
-      <c r="D98" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="E98" s="69"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="E98" s="73"/>
       <c r="F98" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G98" s="26"/>
+      <c r="G98" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H98" s="27"/>
       <c r="I98" s="27"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="75"/>
-      <c r="L98" s="76"/>
+      <c r="J98" s="78"/>
+      <c r="K98" s="79"/>
+      <c r="L98" s="80"/>
     </row>
     <row r="99" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A99" s="40"/>
-      <c r="B99" s="72" t="s">
+      <c r="A99" s="32">
+        <v>80</v>
+      </c>
+      <c r="B99" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="73"/>
-      <c r="D99" s="68" t="s">
-        <v>183</v>
-      </c>
-      <c r="E99" s="69"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E99" s="73"/>
       <c r="F99" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G99" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H99" s="27"/>
       <c r="I99" s="27"/>
-      <c r="J99" s="74"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="76"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="79"/>
+      <c r="L99" s="80"/>
     </row>
     <row r="100" spans="1:12" s="20" customFormat="1" ht="108" customHeight="1">
-      <c r="A100" s="40"/>
-      <c r="B100" s="72" t="s">
+      <c r="A100" s="32">
+        <v>81</v>
+      </c>
+      <c r="B100" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C100" s="73"/>
-      <c r="D100" s="68" t="s">
-        <v>184</v>
-      </c>
-      <c r="E100" s="69"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="73"/>
       <c r="F100" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G100" s="26"/>
+      <c r="G100" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H100" s="27"/>
       <c r="I100" s="27"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="76"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="79"/>
+      <c r="L100" s="80"/>
     </row>
     <row r="101" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
-      <c r="A101" s="40"/>
-      <c r="B101" s="72" t="s">
+      <c r="A101" s="32">
+        <v>82</v>
+      </c>
+      <c r="B101" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="C101" s="73"/>
-      <c r="D101" s="68" t="s">
-        <v>185</v>
-      </c>
-      <c r="E101" s="69"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="73"/>
       <c r="F101" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G101" s="26"/>
+      <c r="G101" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H101" s="27"/>
       <c r="I101" s="27"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="75"/>
-      <c r="L101" s="76"/>
+      <c r="J101" s="78"/>
+      <c r="K101" s="79"/>
+      <c r="L101" s="80"/>
     </row>
     <row r="102" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A102" s="40"/>
-      <c r="B102" s="72" t="s">
+      <c r="A102" s="32">
+        <v>83</v>
+      </c>
+      <c r="B102" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C102" s="73"/>
-      <c r="D102" s="68" t="s">
-        <v>186</v>
-      </c>
-      <c r="E102" s="69"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" s="73"/>
       <c r="F102" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="G102" s="26"/>
+      <c r="G102" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H102" s="27"/>
       <c r="I102" s="27"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
-      <c r="L102" s="65"/>
+      <c r="J102" s="69"/>
+      <c r="K102" s="69"/>
+      <c r="L102" s="69"/>
     </row>
     <row r="103" spans="1:12" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A103" s="40"/>
-      <c r="B103" s="72" t="s">
+      <c r="A103" s="32">
+        <v>84</v>
+      </c>
+      <c r="B103" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" s="69"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="E103" s="73"/>
       <c r="F103" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="G103" s="26"/>
+      <c r="G103" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H103" s="27"/>
       <c r="I103" s="27"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
+      <c r="J103" s="69"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="69"/>
     </row>
     <row r="104" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A104" s="40"/>
-      <c r="B104" s="72" t="s">
+      <c r="A104" s="32">
+        <v>85</v>
+      </c>
+      <c r="B104" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="73"/>
-      <c r="D104" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="E104" s="69"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="E104" s="73"/>
       <c r="F104" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="G104" s="26"/>
+      <c r="G104" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H104" s="27"/>
       <c r="I104" s="27"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="65"/>
+      <c r="J104" s="69"/>
+      <c r="K104" s="69"/>
+      <c r="L104" s="69"/>
     </row>
     <row r="105" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A105" s="40"/>
-      <c r="B105" s="72" t="s">
+      <c r="A105" s="32">
+        <v>86</v>
+      </c>
+      <c r="B105" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="73"/>
-      <c r="D105" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="E105" s="69"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" s="73"/>
       <c r="F105" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G105" s="26"/>
+        <v>165</v>
+      </c>
+      <c r="G105" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H105" s="27"/>
       <c r="I105" s="27"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="65"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="69"/>
     </row>
     <row r="106" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A106" s="40"/>
-      <c r="B106" s="72" t="s">
+      <c r="A106" s="32">
+        <v>87</v>
+      </c>
+      <c r="B106" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="73"/>
-      <c r="D106" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="E106" s="69"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="73"/>
       <c r="F106" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G106" s="26"/>
+      <c r="G106" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H106" s="27"/>
       <c r="I106" s="27"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="65"/>
+      <c r="J106" s="69"/>
+      <c r="K106" s="69"/>
+      <c r="L106" s="69"/>
     </row>
     <row r="107" spans="1:12" ht="24.75" customHeight="1">
       <c r="A107" s="36"/>
-      <c r="B107" s="70" t="s">
+      <c r="B107" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="70"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="70"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="70"/>
-      <c r="J107" s="70"/>
-      <c r="K107" s="70"/>
-      <c r="L107" s="71"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
+      <c r="I107" s="74"/>
+      <c r="J107" s="74"/>
+      <c r="K107" s="74"/>
+      <c r="L107" s="75"/>
     </row>
     <row r="108" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A108" s="40"/>
-      <c r="B108" s="72" t="s">
+      <c r="A108" s="32">
+        <v>88</v>
+      </c>
+      <c r="B108" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="73"/>
-      <c r="D108" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="E108" s="69"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="E108" s="73"/>
       <c r="F108" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="G108" s="26"/>
+      <c r="G108" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H108" s="27"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="65"/>
-      <c r="K108" s="65"/>
-      <c r="L108" s="65"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="69"/>
     </row>
     <row r="109" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A109" s="40"/>
-      <c r="B109" s="72" t="s">
+      <c r="A109" s="32">
+        <v>89</v>
+      </c>
+      <c r="B109" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="E109" s="69"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="E109" s="73"/>
       <c r="F109" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="G109" s="26"/>
+      <c r="G109" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H109" s="27"/>
       <c r="I109" s="27"/>
-      <c r="J109" s="65"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="69"/>
     </row>
     <row r="110" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A110" s="24"/>
-      <c r="B110" s="68" t="s">
+      <c r="A110" s="32">
+        <v>90</v>
+      </c>
+      <c r="B110" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C110" s="69"/>
-      <c r="D110" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E110" s="69"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="26"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" s="73"/>
+      <c r="F110" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G110" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H110" s="27"/>
       <c r="I110" s="27"/>
-      <c r="J110" s="65"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="65"/>
+      <c r="J110" s="69"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="69"/>
     </row>
     <row r="111" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A111" s="24"/>
-      <c r="B111" s="68" t="s">
+      <c r="A111" s="32">
+        <v>91</v>
+      </c>
+      <c r="B111" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E111" s="69"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="26"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="E111" s="73"/>
+      <c r="F111" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="30"/>
-      <c r="K111" s="30"/>
-      <c r="L111" s="30"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
     </row>
     <row r="112" spans="1:12" s="20" customFormat="1" ht="119.25" customHeight="1">
-      <c r="A112" s="24"/>
-      <c r="B112" s="68" t="s">
+      <c r="A112" s="32">
+        <v>92</v>
+      </c>
+      <c r="B112" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="69"/>
-      <c r="D112" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E112" s="69"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="26"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="E112" s="73"/>
+      <c r="F112" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H112" s="27"/>
       <c r="I112" s="27"/>
-      <c r="J112" s="30"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="30"/>
-    </row>
-    <row r="113" spans="1:12" s="20" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A113" s="24"/>
-      <c r="B113" s="68" t="s">
+      <c r="J112" s="69"/>
+      <c r="K112" s="69"/>
+      <c r="L112" s="69"/>
+    </row>
+    <row r="113" spans="1:12" s="20" customFormat="1" ht="82.5" customHeight="1">
+      <c r="A113" s="32">
+        <v>93</v>
+      </c>
+      <c r="B113" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="C113" s="69"/>
-      <c r="D113" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E113" s="69"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="26"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="E113" s="73"/>
+      <c r="F113" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H113" s="27"/>
       <c r="I113" s="27"/>
-      <c r="J113" s="30"/>
-      <c r="K113" s="30"/>
-      <c r="L113" s="30"/>
-    </row>
-    <row r="114" spans="1:12" s="20" customFormat="1" ht="63" customHeight="1">
-      <c r="A114" s="24"/>
-      <c r="B114" s="68" t="s">
+      <c r="J113" s="69"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="69"/>
+    </row>
+    <row r="114" spans="1:12" s="20" customFormat="1" ht="84.75" customHeight="1">
+      <c r="A114" s="32">
+        <v>94</v>
+      </c>
+      <c r="B114" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E114" s="69"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="26"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="E114" s="73"/>
+      <c r="F114" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H114" s="27"/>
       <c r="I114" s="27"/>
-      <c r="J114" s="30"/>
-      <c r="K114" s="30"/>
-      <c r="L114" s="30"/>
-    </row>
-    <row r="115" spans="1:12" s="20" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A115" s="24"/>
-      <c r="B115" s="68" t="s">
+      <c r="J114" s="69"/>
+      <c r="K114" s="69"/>
+      <c r="L114" s="69"/>
+    </row>
+    <row r="115" spans="1:12" s="20" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A115" s="32">
+        <v>95</v>
+      </c>
+      <c r="B115" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="68" t="s">
+      <c r="C115" s="73"/>
+      <c r="D115" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E115" s="73"/>
+      <c r="F115" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="E115" s="69"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="26"/>
+      <c r="G115" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H115" s="27"/>
       <c r="I115" s="27"/>
-      <c r="J115" s="30"/>
-      <c r="K115" s="30"/>
-      <c r="L115" s="30"/>
-    </row>
-    <row r="116" spans="1:12" s="20" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A116" s="24"/>
-      <c r="B116" s="68" t="s">
+      <c r="J115" s="69"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="69"/>
+    </row>
+    <row r="116" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
+      <c r="A116" s="32">
+        <v>96</v>
+      </c>
+      <c r="B116" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="C116" s="69"/>
-      <c r="D116" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E116" s="69"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="26"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="E116" s="73"/>
+      <c r="F116" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H116" s="27"/>
       <c r="I116" s="27"/>
-      <c r="J116" s="30"/>
-      <c r="K116" s="30"/>
-      <c r="L116" s="30"/>
-    </row>
-    <row r="117" spans="1:12" s="20" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A117" s="24"/>
-      <c r="B117" s="68" t="s">
+      <c r="J116" s="69"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="69"/>
+    </row>
+    <row r="117" spans="1:12" s="20" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A117" s="32">
+        <v>97</v>
+      </c>
+      <c r="B117" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E117" s="69"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="26"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="E117" s="73"/>
+      <c r="F117" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H117" s="27"/>
       <c r="I117" s="27"/>
-      <c r="J117" s="30"/>
-      <c r="K117" s="30"/>
-      <c r="L117" s="30"/>
+      <c r="J117" s="69"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="69"/>
     </row>
     <row r="118" spans="1:12" s="20" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A118" s="24"/>
-      <c r="B118" s="66" t="s">
+      <c r="A118" s="32">
+        <v>98</v>
+      </c>
+      <c r="B118" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C118" s="67"/>
-      <c r="D118" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E118" s="69"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="26"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" s="73"/>
+      <c r="F118" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H118" s="27"/>
       <c r="I118" s="27"/>
-      <c r="J118" s="30"/>
-      <c r="K118" s="30"/>
-      <c r="L118" s="30"/>
-    </row>
-    <row r="119" spans="1:12" s="20" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A119" s="24"/>
-      <c r="B119" s="66" t="s">
+      <c r="J118" s="69"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="69"/>
+    </row>
+    <row r="119" spans="1:12" s="20" customFormat="1" ht="61.5" customHeight="1">
+      <c r="A119" s="32">
+        <v>99</v>
+      </c>
+      <c r="B119" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E119" s="69"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="26"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="E119" s="73"/>
+      <c r="F119" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H119" s="27"/>
       <c r="I119" s="27"/>
-      <c r="J119" s="30"/>
-      <c r="K119" s="30"/>
-      <c r="L119" s="30"/>
-    </row>
-    <row r="120" spans="1:12" s="20" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A120" s="24"/>
-      <c r="B120" s="66" t="s">
+      <c r="J119" s="69"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="69"/>
+    </row>
+    <row r="120" spans="1:12" s="20" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A120" s="32">
+        <v>100</v>
+      </c>
+      <c r="B120" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="C120" s="67"/>
-      <c r="D120" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="E120" s="69"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="26"/>
+      <c r="C120" s="71"/>
+      <c r="D120" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="E120" s="73"/>
+      <c r="F120" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H120" s="27"/>
       <c r="I120" s="27"/>
-      <c r="J120" s="30"/>
-      <c r="K120" s="30"/>
-      <c r="L120" s="30"/>
+      <c r="J120" s="69"/>
+      <c r="K120" s="69"/>
+      <c r="L120" s="69"/>
     </row>
     <row r="121" spans="1:12" ht="24.75" customHeight="1">
       <c r="A121" s="36"/>
-      <c r="B121" s="70" t="s">
+      <c r="B121" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="70"/>
-      <c r="E121" s="70"/>
-      <c r="F121" s="70"/>
-      <c r="G121" s="70"/>
-      <c r="H121" s="70"/>
-      <c r="I121" s="70"/>
-      <c r="J121" s="70"/>
-      <c r="K121" s="70"/>
-      <c r="L121" s="71"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="74"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="74"/>
+      <c r="H121" s="74"/>
+      <c r="I121" s="74"/>
+      <c r="J121" s="74"/>
+      <c r="K121" s="74"/>
+      <c r="L121" s="75"/>
     </row>
     <row r="122" spans="1:12" s="20" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A122" s="24"/>
-      <c r="B122" s="66" t="s">
+      <c r="A122" s="32">
+        <v>101</v>
+      </c>
+      <c r="B122" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C122" s="67"/>
-      <c r="D122" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="E122" s="69"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="26"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E122" s="73"/>
+      <c r="F122" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H122" s="27"/>
       <c r="I122" s="27"/>
-      <c r="J122" s="30"/>
-      <c r="K122" s="30"/>
-      <c r="L122" s="30"/>
+      <c r="J122" s="69"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="69"/>
     </row>
     <row r="123" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A123" s="24"/>
-      <c r="B123" s="66" t="s">
+      <c r="A123" s="32">
+        <v>102</v>
+      </c>
+      <c r="B123" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C123" s="67"/>
-      <c r="D123" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="E123" s="69"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="26"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E123" s="73"/>
+      <c r="F123" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G123" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="H123" s="27"/>
       <c r="I123" s="27"/>
-      <c r="J123" s="30"/>
-      <c r="K123" s="30"/>
-      <c r="L123" s="30"/>
+      <c r="J123" s="69"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="69"/>
     </row>
     <row r="124" spans="1:12" ht="24.75" customHeight="1">
       <c r="A124" s="36"/>
-      <c r="B124" s="70" t="s">
+      <c r="B124" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="C124" s="70"/>
-      <c r="D124" s="70"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="70"/>
-      <c r="H124" s="70"/>
-      <c r="I124" s="70"/>
-      <c r="J124" s="70"/>
-      <c r="K124" s="70"/>
-      <c r="L124" s="71"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="74"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="74"/>
+      <c r="H124" s="74"/>
+      <c r="I124" s="74"/>
+      <c r="J124" s="74"/>
+      <c r="K124" s="74"/>
+      <c r="L124" s="75"/>
     </row>
     <row r="125" spans="1:12" s="20" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A125" s="38"/>
-      <c r="B125" s="66" t="s">
+      <c r="A125" s="38">
+        <v>103</v>
+      </c>
+      <c r="B125" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="E125" s="69"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E125" s="73"/>
       <c r="F125" s="37"/>
       <c r="G125" s="26"/>
       <c r="H125" s="27"/>
       <c r="I125" s="27"/>
-      <c r="J125" s="35"/>
-      <c r="K125" s="35"/>
-      <c r="L125" s="35"/>
+      <c r="J125" s="69"/>
+      <c r="K125" s="69"/>
+      <c r="L125" s="69"/>
     </row>
     <row r="126" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A126" s="38"/>
-      <c r="B126" s="66" t="s">
+      <c r="A126" s="38">
+        <v>104</v>
+      </c>
+      <c r="B126" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C126" s="67"/>
-      <c r="D126" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E126" s="69"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E126" s="73"/>
       <c r="F126" s="37"/>
       <c r="G126" s="26"/>
       <c r="H126" s="27"/>
       <c r="I126" s="27"/>
-      <c r="J126" s="35"/>
-      <c r="K126" s="35"/>
-      <c r="L126" s="35"/>
+      <c r="J126" s="69"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="69"/>
     </row>
     <row r="127" spans="1:12" s="20" customFormat="1" ht="62.25" customHeight="1">
-      <c r="A127" s="38"/>
-      <c r="B127" s="66" t="s">
+      <c r="A127" s="38">
+        <v>105</v>
+      </c>
+      <c r="B127" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E127" s="69"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="E127" s="73"/>
       <c r="F127" s="37"/>
       <c r="G127" s="26"/>
       <c r="H127" s="27"/>
       <c r="I127" s="27"/>
-      <c r="J127" s="35"/>
-      <c r="K127" s="35"/>
-      <c r="L127" s="35"/>
+      <c r="J127" s="69"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="69"/>
     </row>
     <row r="128" spans="1:12" ht="24.75" customHeight="1">
       <c r="A128" s="36"/>
-      <c r="B128" s="70" t="s">
+      <c r="B128" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="70"/>
-      <c r="D128" s="70"/>
-      <c r="E128" s="70"/>
-      <c r="F128" s="70"/>
-      <c r="G128" s="70"/>
-      <c r="H128" s="70"/>
-      <c r="I128" s="70"/>
-      <c r="J128" s="70"/>
-      <c r="K128" s="70"/>
-      <c r="L128" s="71"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="74"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="74"/>
+      <c r="H128" s="74"/>
+      <c r="I128" s="74"/>
+      <c r="J128" s="74"/>
+      <c r="K128" s="74"/>
+      <c r="L128" s="75"/>
     </row>
     <row r="129" spans="1:12" s="20" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A129" s="38"/>
-      <c r="B129" s="66" t="s">
+      <c r="A129" s="38">
+        <v>106</v>
+      </c>
+      <c r="B129" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E129" s="69"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="E129" s="73"/>
       <c r="F129" s="37"/>
       <c r="G129" s="26"/>
       <c r="H129" s="27"/>
@@ -7957,28 +9035,30 @@
     </row>
     <row r="130" spans="1:12" ht="24.75" customHeight="1">
       <c r="A130" s="36"/>
-      <c r="B130" s="70" t="s">
+      <c r="B130" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C130" s="70"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="70"/>
-      <c r="F130" s="70"/>
-      <c r="G130" s="70"/>
-      <c r="H130" s="70"/>
-      <c r="I130" s="70"/>
-      <c r="J130" s="70"/>
-      <c r="K130" s="70"/>
-      <c r="L130" s="71"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="74"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="74"/>
+      <c r="G130" s="74"/>
+      <c r="H130" s="74"/>
+      <c r="I130" s="74"/>
+      <c r="J130" s="74"/>
+      <c r="K130" s="74"/>
+      <c r="L130" s="75"/>
     </row>
     <row r="131" spans="1:12" s="20" customFormat="1" ht="44.25" customHeight="1">
-      <c r="A131" s="39"/>
-      <c r="B131" s="66" t="s">
+      <c r="A131" s="39">
+        <v>107</v>
+      </c>
+      <c r="B131" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="69"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="73"/>
       <c r="F131" s="37"/>
       <c r="G131" s="26"/>
       <c r="H131" s="27"/>
@@ -7989,10 +9069,10 @@
     </row>
     <row r="132" spans="1:12" s="20" customFormat="1">
       <c r="A132" s="24"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="69"/>
+      <c r="B132" s="70"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="72"/>
+      <c r="E132" s="73"/>
       <c r="F132" s="37"/>
       <c r="G132" s="26"/>
       <c r="H132" s="27"/>
@@ -8003,10 +9083,10 @@
     </row>
     <row r="133" spans="1:12" s="20" customFormat="1">
       <c r="A133" s="24"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="69"/>
+      <c r="B133" s="70"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="73"/>
       <c r="F133" s="37"/>
       <c r="G133" s="26"/>
       <c r="H133" s="27"/>
@@ -8017,10 +9097,10 @@
     </row>
     <row r="134" spans="1:12" s="20" customFormat="1">
       <c r="A134" s="24"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="69"/>
+      <c r="B134" s="70"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="73"/>
       <c r="F134" s="37"/>
       <c r="G134" s="26"/>
       <c r="H134" s="27"/>
@@ -8031,10 +9111,10 @@
     </row>
     <row r="135" spans="1:12" s="20" customFormat="1">
       <c r="A135" s="24"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="69"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="71"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="73"/>
       <c r="F135" s="37"/>
       <c r="G135" s="26"/>
       <c r="H135" s="27"/>
@@ -8045,10 +9125,10 @@
     </row>
     <row r="136" spans="1:12" s="20" customFormat="1">
       <c r="A136" s="24"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="69"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="71"/>
+      <c r="D136" s="72"/>
+      <c r="E136" s="73"/>
       <c r="F136" s="37"/>
       <c r="G136" s="26"/>
       <c r="H136" s="27"/>
@@ -8059,10 +9139,10 @@
     </row>
     <row r="137" spans="1:12" s="20" customFormat="1">
       <c r="A137" s="24"/>
-      <c r="B137" s="66"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="69"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="73"/>
       <c r="F137" s="37"/>
       <c r="G137" s="26"/>
       <c r="H137" s="27"/>
@@ -8073,10 +9153,10 @@
     </row>
     <row r="138" spans="1:12" s="20" customFormat="1">
       <c r="A138" s="24"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="69"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="71"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="73"/>
       <c r="F138" s="37"/>
       <c r="G138" s="26"/>
       <c r="H138" s="27"/>
@@ -8087,10 +9167,10 @@
     </row>
     <row r="139" spans="1:12" s="20" customFormat="1">
       <c r="A139" s="24"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="69"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="73"/>
       <c r="F139" s="37"/>
       <c r="G139" s="26"/>
       <c r="H139" s="27"/>
@@ -8101,10 +9181,10 @@
     </row>
     <row r="140" spans="1:12" s="20" customFormat="1">
       <c r="A140" s="24"/>
-      <c r="B140" s="66"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="69"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="71"/>
+      <c r="D140" s="72"/>
+      <c r="E140" s="73"/>
       <c r="F140" s="37"/>
       <c r="G140" s="26"/>
       <c r="H140" s="27"/>
@@ -8115,10 +9195,10 @@
     </row>
     <row r="141" spans="1:12" s="20" customFormat="1">
       <c r="A141" s="24"/>
-      <c r="B141" s="77"/>
-      <c r="C141" s="78"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="69"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="82"/>
+      <c r="D141" s="72"/>
+      <c r="E141" s="73"/>
       <c r="F141" s="37"/>
       <c r="G141" s="26"/>
       <c r="H141" s="27"/>
@@ -8129,10 +9209,10 @@
     </row>
     <row r="142" spans="1:12" s="20" customFormat="1">
       <c r="A142" s="24"/>
-      <c r="B142" s="77"/>
-      <c r="C142" s="78"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="69"/>
+      <c r="B142" s="81"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="72"/>
+      <c r="E142" s="73"/>
       <c r="F142" s="37"/>
       <c r="G142" s="26"/>
       <c r="H142" s="27"/>
@@ -8143,10 +9223,10 @@
     </row>
     <row r="143" spans="1:12" s="20" customFormat="1">
       <c r="A143" s="24"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="69"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="72"/>
+      <c r="E143" s="73"/>
       <c r="F143" s="37"/>
       <c r="G143" s="26"/>
       <c r="H143" s="27"/>
@@ -8157,10 +9237,10 @@
     </row>
     <row r="144" spans="1:12" s="20" customFormat="1">
       <c r="A144" s="24"/>
-      <c r="B144" s="77"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="69"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="82"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="73"/>
       <c r="F144" s="37"/>
       <c r="G144" s="26"/>
       <c r="H144" s="27"/>
@@ -8171,10 +9251,10 @@
     </row>
     <row r="145" spans="1:12" s="20" customFormat="1">
       <c r="A145" s="24"/>
-      <c r="B145" s="77"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="69"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="82"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="73"/>
       <c r="F145" s="37"/>
       <c r="G145" s="26"/>
       <c r="H145" s="27"/>
@@ -8185,10 +9265,10 @@
     </row>
     <row r="146" spans="1:12" s="20" customFormat="1">
       <c r="A146" s="24"/>
-      <c r="B146" s="77"/>
-      <c r="C146" s="78"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="69"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="82"/>
+      <c r="D146" s="72"/>
+      <c r="E146" s="73"/>
       <c r="F146" s="37"/>
       <c r="G146" s="26"/>
       <c r="H146" s="27"/>
@@ -8199,10 +9279,10 @@
     </row>
     <row r="147" spans="1:12" s="20" customFormat="1">
       <c r="A147" s="24"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="69"/>
+      <c r="B147" s="72"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="72"/>
+      <c r="E147" s="73"/>
       <c r="F147" s="37"/>
       <c r="G147" s="26"/>
       <c r="H147" s="27"/>
@@ -8213,10 +9293,10 @@
     </row>
     <row r="148" spans="1:12" s="20" customFormat="1">
       <c r="A148" s="24"/>
-      <c r="B148" s="68"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="69"/>
+      <c r="B148" s="72"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="72"/>
+      <c r="E148" s="73"/>
       <c r="F148" s="37"/>
       <c r="G148" s="26"/>
       <c r="H148" s="27"/>
@@ -8227,381 +9307,381 @@
     </row>
     <row r="149" spans="1:12" ht="77.25" customHeight="1">
       <c r="A149" s="24"/>
-      <c r="B149" s="72"/>
-      <c r="C149" s="73"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="69"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="72"/>
+      <c r="E149" s="73"/>
       <c r="F149" s="25"/>
       <c r="G149" s="26"/>
       <c r="H149" s="27"/>
       <c r="I149" s="27"/>
-      <c r="J149" s="65"/>
-      <c r="K149" s="65"/>
-      <c r="L149" s="65"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="69"/>
     </row>
     <row r="150" spans="1:12" ht="33" customHeight="1">
-      <c r="A150" s="79"/>
-      <c r="B150" s="80"/>
-      <c r="C150" s="80"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="80"/>
-      <c r="F150" s="80"/>
-      <c r="G150" s="80"/>
-      <c r="H150" s="80"/>
-      <c r="I150" s="80"/>
-      <c r="J150" s="80"/>
-      <c r="K150" s="80"/>
-      <c r="L150" s="81"/>
+      <c r="A150" s="83"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="84"/>
+      <c r="D150" s="84"/>
+      <c r="E150" s="84"/>
+      <c r="F150" s="84"/>
+      <c r="G150" s="84"/>
+      <c r="H150" s="84"/>
+      <c r="I150" s="84"/>
+      <c r="J150" s="84"/>
+      <c r="K150" s="84"/>
+      <c r="L150" s="85"/>
     </row>
     <row r="151" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
       <c r="A151" s="24"/>
-      <c r="B151" s="72"/>
-      <c r="C151" s="73"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="69"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="72"/>
+      <c r="E151" s="73"/>
       <c r="F151" s="25"/>
       <c r="G151" s="26"/>
       <c r="H151" s="27"/>
       <c r="I151" s="27"/>
-      <c r="J151" s="65"/>
-      <c r="K151" s="65"/>
-      <c r="L151" s="65"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="69"/>
     </row>
     <row r="152" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
       <c r="A152" s="24"/>
-      <c r="B152" s="72"/>
-      <c r="C152" s="73"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="69"/>
+      <c r="B152" s="76"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="72"/>
+      <c r="E152" s="73"/>
       <c r="F152" s="25"/>
       <c r="G152" s="26"/>
       <c r="H152" s="27"/>
       <c r="I152" s="27"/>
-      <c r="J152" s="65"/>
-      <c r="K152" s="65"/>
-      <c r="L152" s="65"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="69"/>
     </row>
     <row r="153" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
       <c r="A153" s="24"/>
-      <c r="B153" s="72"/>
-      <c r="C153" s="73"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="69"/>
+      <c r="B153" s="76"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="73"/>
       <c r="F153" s="25"/>
       <c r="G153" s="26"/>
       <c r="H153" s="27"/>
       <c r="I153" s="27"/>
-      <c r="J153" s="65"/>
-      <c r="K153" s="65"/>
-      <c r="L153" s="65"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="69"/>
     </row>
     <row r="154" spans="1:12" ht="107.25" customHeight="1">
       <c r="A154" s="24"/>
-      <c r="B154" s="68"/>
-      <c r="C154" s="69"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="69"/>
+      <c r="B154" s="72"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="72"/>
+      <c r="E154" s="73"/>
       <c r="F154" s="25"/>
       <c r="G154" s="26"/>
       <c r="H154" s="27"/>
       <c r="I154" s="27"/>
-      <c r="J154" s="65"/>
-      <c r="K154" s="65"/>
-      <c r="L154" s="65"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="69"/>
     </row>
     <row r="155" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A155" s="24"/>
-      <c r="B155" s="72"/>
-      <c r="C155" s="73"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="69"/>
+      <c r="B155" s="76"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="72"/>
+      <c r="E155" s="73"/>
       <c r="F155" s="25"/>
       <c r="G155" s="26"/>
       <c r="H155" s="27"/>
       <c r="I155" s="27"/>
-      <c r="J155" s="65"/>
-      <c r="K155" s="65"/>
-      <c r="L155" s="65"/>
+      <c r="J155" s="69"/>
+      <c r="K155" s="69"/>
+      <c r="L155" s="69"/>
     </row>
     <row r="156" spans="1:12" ht="105.75" customHeight="1">
       <c r="A156" s="24"/>
-      <c r="B156" s="68"/>
-      <c r="C156" s="69"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="69"/>
+      <c r="B156" s="72"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="72"/>
+      <c r="E156" s="73"/>
       <c r="F156" s="25"/>
       <c r="G156" s="26"/>
       <c r="H156" s="27"/>
       <c r="I156" s="27"/>
-      <c r="J156" s="65"/>
-      <c r="K156" s="65"/>
-      <c r="L156" s="65"/>
+      <c r="J156" s="69"/>
+      <c r="K156" s="69"/>
+      <c r="L156" s="69"/>
     </row>
     <row r="157" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A157" s="24"/>
-      <c r="B157" s="72"/>
-      <c r="C157" s="73"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="69"/>
+      <c r="B157" s="76"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="72"/>
+      <c r="E157" s="73"/>
       <c r="F157" s="25"/>
       <c r="G157" s="26"/>
       <c r="H157" s="27"/>
       <c r="I157" s="27"/>
-      <c r="J157" s="65"/>
-      <c r="K157" s="65"/>
-      <c r="L157" s="65"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="69"/>
     </row>
     <row r="158" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A158" s="24"/>
-      <c r="B158" s="72"/>
-      <c r="C158" s="73"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="69"/>
+      <c r="B158" s="76"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="72"/>
+      <c r="E158" s="73"/>
       <c r="F158" s="25"/>
       <c r="G158" s="26"/>
       <c r="H158" s="27"/>
       <c r="I158" s="27"/>
-      <c r="J158" s="65"/>
-      <c r="K158" s="65"/>
-      <c r="L158" s="65"/>
+      <c r="J158" s="69"/>
+      <c r="K158" s="69"/>
+      <c r="L158" s="69"/>
     </row>
     <row r="159" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A159" s="24"/>
-      <c r="B159" s="72"/>
-      <c r="C159" s="73"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="69"/>
+      <c r="B159" s="76"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="72"/>
+      <c r="E159" s="73"/>
       <c r="F159" s="29"/>
       <c r="G159" s="26"/>
       <c r="H159" s="27"/>
       <c r="I159" s="27"/>
-      <c r="J159" s="65"/>
-      <c r="K159" s="65"/>
-      <c r="L159" s="65"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="69"/>
+      <c r="L159" s="69"/>
     </row>
     <row r="160" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A160" s="24"/>
-      <c r="B160" s="72"/>
-      <c r="C160" s="73"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="69"/>
+      <c r="B160" s="76"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="72"/>
+      <c r="E160" s="73"/>
       <c r="F160" s="25"/>
       <c r="G160" s="26"/>
       <c r="H160" s="27"/>
       <c r="I160" s="27"/>
-      <c r="J160" s="65"/>
-      <c r="K160" s="65"/>
-      <c r="L160" s="65"/>
+      <c r="J160" s="69"/>
+      <c r="K160" s="69"/>
+      <c r="L160" s="69"/>
     </row>
     <row r="161" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A161" s="24"/>
-      <c r="B161" s="72"/>
-      <c r="C161" s="73"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="69"/>
+      <c r="B161" s="76"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="72"/>
+      <c r="E161" s="73"/>
       <c r="F161" s="25"/>
       <c r="G161" s="26"/>
       <c r="H161" s="27"/>
       <c r="I161" s="27"/>
-      <c r="J161" s="65"/>
-      <c r="K161" s="65"/>
-      <c r="L161" s="65"/>
+      <c r="J161" s="69"/>
+      <c r="K161" s="69"/>
+      <c r="L161" s="69"/>
     </row>
     <row r="162" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A162" s="24"/>
-      <c r="B162" s="72"/>
-      <c r="C162" s="73"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="69"/>
+      <c r="B162" s="76"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="73"/>
       <c r="F162" s="25"/>
       <c r="G162" s="26"/>
       <c r="H162" s="27"/>
       <c r="I162" s="27"/>
-      <c r="J162" s="65"/>
-      <c r="K162" s="65"/>
-      <c r="L162" s="65"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="69"/>
+      <c r="L162" s="69"/>
     </row>
     <row r="163" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A163" s="24"/>
-      <c r="B163" s="72"/>
-      <c r="C163" s="73"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="69"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="73"/>
       <c r="F163" s="25"/>
       <c r="G163" s="26"/>
       <c r="H163" s="27"/>
       <c r="I163" s="27"/>
-      <c r="J163" s="65"/>
-      <c r="K163" s="65"/>
-      <c r="L163" s="65"/>
+      <c r="J163" s="69"/>
+      <c r="K163" s="69"/>
+      <c r="L163" s="69"/>
     </row>
     <row r="164" spans="1:12" ht="59.25" customHeight="1">
       <c r="A164" s="24"/>
-      <c r="B164" s="68"/>
-      <c r="C164" s="69"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="69"/>
+      <c r="B164" s="72"/>
+      <c r="C164" s="73"/>
+      <c r="D164" s="72"/>
+      <c r="E164" s="73"/>
       <c r="F164" s="25"/>
       <c r="G164" s="26"/>
       <c r="H164" s="27"/>
       <c r="I164" s="27"/>
-      <c r="J164" s="65"/>
-      <c r="K164" s="65"/>
-      <c r="L164" s="65"/>
+      <c r="J164" s="69"/>
+      <c r="K164" s="69"/>
+      <c r="L164" s="69"/>
     </row>
     <row r="165" spans="1:12" ht="81" customHeight="1">
       <c r="A165" s="24"/>
-      <c r="B165" s="68"/>
-      <c r="C165" s="69"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="69"/>
+      <c r="B165" s="72"/>
+      <c r="C165" s="73"/>
+      <c r="D165" s="72"/>
+      <c r="E165" s="73"/>
       <c r="F165" s="29"/>
       <c r="G165" s="26"/>
       <c r="H165" s="27"/>
       <c r="I165" s="27"/>
-      <c r="J165" s="65"/>
-      <c r="K165" s="65"/>
-      <c r="L165" s="65"/>
+      <c r="J165" s="69"/>
+      <c r="K165" s="69"/>
+      <c r="L165" s="69"/>
     </row>
     <row r="166" spans="1:12" ht="89.25" customHeight="1">
       <c r="A166" s="24"/>
-      <c r="B166" s="68"/>
-      <c r="C166" s="69"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="69"/>
+      <c r="B166" s="72"/>
+      <c r="C166" s="73"/>
+      <c r="D166" s="72"/>
+      <c r="E166" s="73"/>
       <c r="F166" s="29"/>
       <c r="G166" s="26"/>
       <c r="H166" s="27"/>
       <c r="I166" s="27"/>
-      <c r="J166" s="65"/>
-      <c r="K166" s="65"/>
-      <c r="L166" s="65"/>
+      <c r="J166" s="69"/>
+      <c r="K166" s="69"/>
+      <c r="L166" s="69"/>
     </row>
     <row r="167" spans="1:12" ht="76.5" customHeight="1">
       <c r="A167" s="24"/>
-      <c r="B167" s="68"/>
-      <c r="C167" s="69"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="69"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="73"/>
+      <c r="D167" s="72"/>
+      <c r="E167" s="73"/>
       <c r="F167" s="29"/>
       <c r="G167" s="26"/>
       <c r="H167" s="27"/>
       <c r="I167" s="27"/>
-      <c r="J167" s="65"/>
-      <c r="K167" s="65"/>
-      <c r="L167" s="65"/>
+      <c r="J167" s="69"/>
+      <c r="K167" s="69"/>
+      <c r="L167" s="69"/>
     </row>
     <row r="168" spans="1:12" ht="76.5" customHeight="1">
       <c r="A168" s="24"/>
-      <c r="B168" s="68"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="69"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="73"/>
+      <c r="D168" s="72"/>
+      <c r="E168" s="73"/>
       <c r="F168" s="29"/>
       <c r="G168" s="26"/>
       <c r="H168" s="27"/>
       <c r="I168" s="27"/>
-      <c r="J168" s="65"/>
-      <c r="K168" s="65"/>
-      <c r="L168" s="65"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
+      <c r="L168" s="69"/>
     </row>
     <row r="169" spans="1:12" ht="96" customHeight="1">
       <c r="A169" s="24"/>
-      <c r="B169" s="68"/>
-      <c r="C169" s="69"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="69"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="73"/>
+      <c r="D169" s="72"/>
+      <c r="E169" s="73"/>
       <c r="F169" s="29"/>
       <c r="G169" s="26"/>
       <c r="H169" s="27"/>
       <c r="I169" s="27"/>
-      <c r="J169" s="65"/>
-      <c r="K169" s="65"/>
-      <c r="L169" s="65"/>
+      <c r="J169" s="69"/>
+      <c r="K169" s="69"/>
+      <c r="L169" s="69"/>
     </row>
     <row r="170" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A170" s="24"/>
-      <c r="B170" s="72"/>
-      <c r="C170" s="73"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="69"/>
+      <c r="B170" s="76"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="72"/>
+      <c r="E170" s="73"/>
       <c r="F170" s="25"/>
       <c r="G170" s="26"/>
       <c r="H170" s="27"/>
       <c r="I170" s="27"/>
-      <c r="J170" s="65"/>
-      <c r="K170" s="65"/>
-      <c r="L170" s="65"/>
+      <c r="J170" s="69"/>
+      <c r="K170" s="69"/>
+      <c r="L170" s="69"/>
     </row>
     <row r="171" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
       <c r="A171" s="24"/>
-      <c r="B171" s="72"/>
-      <c r="C171" s="73"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="69"/>
+      <c r="B171" s="76"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="72"/>
+      <c r="E171" s="73"/>
       <c r="F171" s="25"/>
       <c r="G171" s="26"/>
       <c r="H171" s="27"/>
       <c r="I171" s="27"/>
-      <c r="J171" s="65"/>
-      <c r="K171" s="65"/>
-      <c r="L171" s="65"/>
+      <c r="J171" s="69"/>
+      <c r="K171" s="69"/>
+      <c r="L171" s="69"/>
     </row>
     <row r="172" spans="1:12" ht="77.25" customHeight="1">
       <c r="A172" s="24"/>
-      <c r="B172" s="68"/>
-      <c r="C172" s="69"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="69"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="73"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="73"/>
       <c r="F172" s="25"/>
       <c r="G172" s="26"/>
       <c r="H172" s="27"/>
       <c r="I172" s="27"/>
-      <c r="J172" s="65"/>
-      <c r="K172" s="65"/>
-      <c r="L172" s="65"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="69"/>
     </row>
     <row r="173" spans="1:12" ht="40.5" customHeight="1">
       <c r="A173" s="24"/>
-      <c r="B173" s="68"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="72"/>
-      <c r="E173" s="73"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="73"/>
+      <c r="D173" s="76"/>
+      <c r="E173" s="77"/>
       <c r="F173" s="25"/>
       <c r="G173" s="26"/>
       <c r="H173" s="27"/>
       <c r="I173" s="27"/>
-      <c r="J173" s="65"/>
-      <c r="K173" s="65"/>
-      <c r="L173" s="65"/>
+      <c r="J173" s="69"/>
+      <c r="K173" s="69"/>
+      <c r="L173" s="69"/>
     </row>
     <row r="174" spans="1:12" ht="40.5" customHeight="1">
       <c r="A174" s="24"/>
-      <c r="B174" s="68"/>
-      <c r="C174" s="69"/>
-      <c r="D174" s="72"/>
-      <c r="E174" s="73"/>
+      <c r="B174" s="72"/>
+      <c r="C174" s="73"/>
+      <c r="D174" s="76"/>
+      <c r="E174" s="77"/>
       <c r="F174" s="25"/>
       <c r="G174" s="26"/>
       <c r="H174" s="27"/>
       <c r="I174" s="27"/>
-      <c r="J174" s="65"/>
-      <c r="K174" s="65"/>
-      <c r="L174" s="65"/>
+      <c r="J174" s="69"/>
+      <c r="K174" s="69"/>
+      <c r="L174" s="69"/>
     </row>
     <row r="175" spans="1:12" ht="42.75" customHeight="1">
       <c r="A175" s="24"/>
-      <c r="B175" s="68"/>
-      <c r="C175" s="69"/>
-      <c r="D175" s="72"/>
-      <c r="E175" s="73"/>
+      <c r="B175" s="72"/>
+      <c r="C175" s="73"/>
+      <c r="D175" s="76"/>
+      <c r="E175" s="77"/>
       <c r="F175" s="25"/>
       <c r="G175" s="26"/>
       <c r="H175" s="27"/>
       <c r="I175" s="27"/>
-      <c r="J175" s="65"/>
-      <c r="K175" s="65"/>
-      <c r="L175" s="65"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A12:L172">
@@ -8610,7 +9690,7 @@
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="10" showButton="0"/>
   </autoFilter>
-  <mergeCells count="436">
+  <mergeCells count="451">
     <mergeCell ref="D127:E127"/>
     <mergeCell ref="B128:L128"/>
     <mergeCell ref="B129:C129"/>
@@ -8620,7 +9700,19 @@
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="J45:L45"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="J37:L37"/>
     <mergeCell ref="J38:L38"/>
@@ -8629,7 +9721,10 @@
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="J42:L42"/>
     <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="B40:C40"/>
@@ -8638,9 +9733,15 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="J175:L175"/>
     <mergeCell ref="J156:L156"/>
@@ -8665,9 +9766,6 @@
     <mergeCell ref="J29:L29"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J149:L149"/>
     <mergeCell ref="J151:L151"/>
     <mergeCell ref="B173:C173"/>
     <mergeCell ref="D173:E173"/>
@@ -8689,6 +9787,9 @@
     <mergeCell ref="D169:E169"/>
     <mergeCell ref="B168:C168"/>
     <mergeCell ref="D168:E168"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="J152:L152"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B16:C16"/>
@@ -8724,8 +9825,6 @@
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="A19:L19"/>
-    <mergeCell ref="J152:L152"/>
     <mergeCell ref="B153:C153"/>
     <mergeCell ref="D153:E153"/>
     <mergeCell ref="J153:L153"/>
@@ -8748,11 +9847,8 @@
     <mergeCell ref="D156:E156"/>
     <mergeCell ref="J154:L154"/>
     <mergeCell ref="J155:L155"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J149:L149"/>
+    <mergeCell ref="B162:C162"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="B27:C27"/>
@@ -8764,19 +9860,14 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="J25:L25"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="A19:L19"/>
+    <mergeCell ref="J24:L24"/>
     <mergeCell ref="D162:E162"/>
     <mergeCell ref="B160:C160"/>
     <mergeCell ref="D160:E160"/>
@@ -8799,13 +9890,6 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="B48:C48"/>
@@ -8818,11 +9902,6 @@
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:E56"/>
@@ -8832,6 +9911,7 @@
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B147:C147"/>
     <mergeCell ref="D147:E147"/>
     <mergeCell ref="B148:C148"/>
@@ -8878,6 +9958,8 @@
     <mergeCell ref="B126:C126"/>
     <mergeCell ref="D126:E126"/>
     <mergeCell ref="B127:C127"/>
+    <mergeCell ref="J83:L83"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="B135:C135"/>
@@ -8931,8 +10013,6 @@
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="D82:E82"/>
     <mergeCell ref="J82:L82"/>
-    <mergeCell ref="J83:L83"/>
-    <mergeCell ref="B84:C84"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="J84:L84"/>
     <mergeCell ref="B85:C85"/>
@@ -9001,6 +10081,7 @@
     <mergeCell ref="J110:L110"/>
     <mergeCell ref="B111:C111"/>
     <mergeCell ref="D111:E111"/>
+    <mergeCell ref="J111:L111"/>
     <mergeCell ref="B112:C112"/>
     <mergeCell ref="D112:E112"/>
     <mergeCell ref="B113:C113"/>
@@ -9024,6 +10105,8 @@
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="B121:L121"/>
+    <mergeCell ref="J122:L122"/>
+    <mergeCell ref="J123:L123"/>
     <mergeCell ref="J55:L55"/>
     <mergeCell ref="J56:L56"/>
     <mergeCell ref="J57:L57"/>
@@ -9047,150 +10130,2318 @@
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="B74:C74"/>
     <mergeCell ref="D74:E74"/>
+    <mergeCell ref="J125:L125"/>
+    <mergeCell ref="J126:L126"/>
+    <mergeCell ref="J127:L127"/>
+    <mergeCell ref="J112:L112"/>
+    <mergeCell ref="J113:L113"/>
+    <mergeCell ref="J114:L114"/>
+    <mergeCell ref="J115:L115"/>
+    <mergeCell ref="J116:L116"/>
+    <mergeCell ref="J117:L117"/>
+    <mergeCell ref="J118:L118"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="J120:L120"/>
   </mergeCells>
   <conditionalFormatting sqref="G14:G18 G20:G50 G74 G131:G175 G52:G64 G66:G68 G70:G72">
-    <cfRule type="cellIs" dxfId="40" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="713" operator="equal">
       <formula>"U"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="714" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="715" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="715" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="716" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="717" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G18 G20:G50 G74 G131:G175 G52:G64 G66:G68 G70:G72">
-    <cfRule type="containsText" dxfId="35" priority="697" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="57" priority="697" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="698" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="56" priority="698" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="699" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="55" priority="699" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="701" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="54" priority="701" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="702" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="53" priority="702" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D8">
-    <cfRule type="containsText" dxfId="30" priority="681" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="52" priority="681" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",D4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G106">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
       <formula>"U"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G76:G106">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="45" priority="22" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",G76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="44" priority="23" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",G76)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G120 G122:G123">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+  <conditionalFormatting sqref="G122:G123 G108:G120">
+    <cfRule type="cellIs" dxfId="41" priority="16" operator="equal">
       <formula>"U"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G108:G120 G122:G123">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="P">
+  <conditionalFormatting sqref="G122:G123 G108:G120">
+    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",G108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="33" priority="14" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",G108)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G127 G129">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"U"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"H"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G125:G127 G129">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="U">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="U">
       <formula>NOT(ISERROR(SEARCH("U",G125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="P">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="P">
       <formula>NOT(ISERROR(SEARCH("P",G125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",G125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Untested">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="Untested">
       <formula>NOT(ISERROR(SEARCH("Untested",G125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="U - Untested_x000a_P - Passed_x000a_F - Failed_x000a_H - Hold_x000a_C - Cancel" sqref="G151:G175 G14:G18 G20:G50 G131:G149 G76:G106 G66:G68 G74 G52:G64 G108:G120 G122:G123 G125:G127 G129 G70:G72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="U - Untested_x000a_P - Passed_x000a_F - Failed_x000a_H - Hold_x000a_C - Cancel" sqref="G151:G175 G14:G18 G20:G50 G131:G149 G70:G72 G66:G68 G74 G52:G64 G76:G106 G122:G123 G125:G127 G129 G108:G120">
+      <formula1>"U,P,F,H,C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="19" customWidth="1"/>
+    <col min="2" max="2" width="14" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="19"/>
+    <col min="8" max="8" width="15.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="91"/>
+      <c r="I1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>COUNTIF($G$3:$G$61,"P")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <f>COUNTIF($G$3:$G$61,"U")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>COUNTIF($G$3:$G$61,"F")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <f>COUNTIF($G$3:$G$61,"H")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <f>COUNTIF($G$3:$G$61,"C")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D$1:$D8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A15" s="32">
+        <v>2</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A16" s="32">
+        <v>3</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" ht="64.5" customHeight="1">
+      <c r="A17" s="32">
+        <v>4</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A18" s="32">
+        <v>5</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" s="20" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="41">
+        <v>6</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
+    </row>
+    <row r="21" spans="1:12" ht="105.75" customHeight="1">
+      <c r="A21" s="32">
+        <v>7</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
+    </row>
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A23" s="32">
+        <v>8</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+    </row>
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A24" s="32">
+        <v>9</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+    </row>
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A25" s="32">
+        <v>10</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+    </row>
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="66" customHeight="1">
+      <c r="A26" s="32">
+        <v>11</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+    </row>
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A27" s="32">
+        <v>12</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="77"/>
+      <c r="D27" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
+    </row>
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1">
+      <c r="A29" s="32">
+        <v>13</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" s="20" customFormat="1" ht="102.75" customHeight="1">
+      <c r="A30" s="32">
+        <v>14</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="85"/>
+    </row>
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A32" s="32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="33" spans="1:12" ht="93.75" customHeight="1">
+      <c r="A33" s="32">
+        <v>16</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="85"/>
+    </row>
+    <row r="35" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A35" s="32">
+        <v>17</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="36" spans="1:12" ht="97.5" customHeight="1">
+      <c r="A36" s="32">
+        <v>18</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="73"/>
+      <c r="F36" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" ht="90.75" customHeight="1">
+      <c r="A37" s="32">
+        <v>19</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="73"/>
+      <c r="F37" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" ht="129" customHeight="1">
+      <c r="A38" s="32">
+        <v>20</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="73"/>
+      <c r="F38" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+    </row>
+    <row r="39" spans="1:12" ht="118.5" customHeight="1">
+      <c r="A39" s="32">
+        <v>21</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="F39" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A40" s="32">
+        <v>22</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="77"/>
+      <c r="D40" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="80"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="36"/>
+      <c r="B41" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="75"/>
+    </row>
+    <row r="42" spans="1:12" s="20" customFormat="1" ht="120.75" customHeight="1">
+      <c r="A42" s="32">
+        <v>23</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="80"/>
+    </row>
+    <row r="43" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A43" s="32">
+        <v>24</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" s="73"/>
+      <c r="F43" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="80"/>
+    </row>
+    <row r="44" spans="1:12" s="20" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="80"/>
+    </row>
+    <row r="45" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="80"/>
+    </row>
+    <row r="46" spans="1:12" s="20" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="80"/>
+    </row>
+    <row r="47" spans="1:12" ht="40.5" customHeight="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+    </row>
+    <row r="48" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A48" s="24"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A12:L46">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="101">
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="B41:L41"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G14:G19 G21 G23:G27 G29:G30 G32:G33 G35:G40 G42:G48">
+    <cfRule type="cellIs" dxfId="21" priority="37" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="38" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="39" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="40" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="41" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G19 G21 G23:G27 G29:G30 G32:G33 G35:G40 G42:G48">
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="33" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="34" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="35" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="36" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="U - Untested_x000a_P - Passed_x000a_F - Failed_x000a_H - Hold_x000a_C - Cancel" sqref="G14:G19 G21 G23:G27 G29:G30 G32:G33 G35:G40 G42:G48">
+      <formula1>"U,P,F,H,C"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="41" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="19" customWidth="1"/>
+    <col min="2" max="2" width="14" style="19" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="19"/>
+    <col min="8" max="8" width="15.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="19" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="91"/>
+      <c r="I1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="28"/>
+      <c r="L1" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="A2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="91"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="28"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <f>COUNTIF($G$3:$G$61,"P")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <f>COUNTIF($G$3:$G$61,"U")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>COUNTIF($G$3:$G$61,"F")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <f>COUNTIF($G$3:$G$61,"H")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3">
+        <f>COUNTIF($G$3:$G$61,"C")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f>SUM(D$1:$D8)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="93"/>
+      <c r="D12" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="85"/>
+    </row>
+    <row r="14" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A14" s="32">
+        <v>1</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="77"/>
+      <c r="D14" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+    </row>
+    <row r="15" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A15" s="32">
+        <v>2</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="77"/>
+      <c r="D15" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+    </row>
+    <row r="16" spans="1:12" s="20" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A16" s="32">
+        <v>3</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" ht="64.5" customHeight="1">
+      <c r="A17" s="32">
+        <v>4</v>
+      </c>
+      <c r="B17" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="73"/>
+      <c r="D17" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E17" s="73"/>
+      <c r="F17" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:12" s="20" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A18" s="32">
+        <v>5</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="73"/>
+      <c r="D18" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" s="20" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="41">
+        <v>6</v>
+      </c>
+      <c r="B19" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="73"/>
+      <c r="D19" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="85"/>
+    </row>
+    <row r="21" spans="1:12" ht="105.75" customHeight="1">
+      <c r="A21" s="32">
+        <v>7</v>
+      </c>
+      <c r="B21" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="73"/>
+      <c r="D21" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="83" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="85"/>
+    </row>
+    <row r="23" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A23" s="32">
+        <v>8</v>
+      </c>
+      <c r="B23" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+    </row>
+    <row r="24" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A24" s="32">
+        <v>9</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+    </row>
+    <row r="25" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A25" s="32">
+        <v>10</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+    </row>
+    <row r="26" spans="1:12" s="20" customFormat="1" ht="66" customHeight="1">
+      <c r="A26" s="32">
+        <v>11</v>
+      </c>
+      <c r="B26" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="77"/>
+      <c r="D26" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+    </row>
+    <row r="27" spans="1:12" s="20" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A27" s="32">
+        <v>12</v>
+      </c>
+      <c r="B27" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C27" s="77"/>
+      <c r="D27" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="83" t="s">
+        <v>281</v>
+      </c>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
+    </row>
+    <row r="29" spans="1:12" s="20" customFormat="1" ht="96" customHeight="1">
+      <c r="A29" s="32">
+        <v>13</v>
+      </c>
+      <c r="B29" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+    </row>
+    <row r="30" spans="1:12" s="20" customFormat="1" ht="102.75" customHeight="1">
+      <c r="A30" s="32">
+        <v>14</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="85"/>
+    </row>
+    <row r="32" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A32" s="32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+    </row>
+    <row r="33" spans="1:12" ht="93.75" customHeight="1">
+      <c r="A33" s="32">
+        <v>16</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="85"/>
+    </row>
+    <row r="35" spans="1:12" ht="48.75" customHeight="1">
+      <c r="A35" s="32">
+        <v>17</v>
+      </c>
+      <c r="B35" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+    </row>
+    <row r="36" spans="1:12" ht="97.5" customHeight="1">
+      <c r="A36" s="32">
+        <v>18</v>
+      </c>
+      <c r="B36" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E36" s="73"/>
+      <c r="F36" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+    </row>
+    <row r="37" spans="1:12" ht="90.75" customHeight="1">
+      <c r="A37" s="32">
+        <v>19</v>
+      </c>
+      <c r="B37" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E37" s="73"/>
+      <c r="F37" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="69"/>
+    </row>
+    <row r="38" spans="1:12" ht="129" customHeight="1">
+      <c r="A38" s="32">
+        <v>20</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="E38" s="73"/>
+      <c r="F38" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+    </row>
+    <row r="39" spans="1:12" ht="118.5" customHeight="1">
+      <c r="A39" s="32">
+        <v>21</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" s="73"/>
+      <c r="F39" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="69"/>
+    </row>
+    <row r="40" spans="1:12" s="20" customFormat="1" ht="98.25" customHeight="1">
+      <c r="A40" s="32">
+        <v>22</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" s="77"/>
+      <c r="D40" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="E40" s="73"/>
+      <c r="F40" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="80"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="36"/>
+      <c r="B41" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="75"/>
+    </row>
+    <row r="42" spans="1:12" s="20" customFormat="1" ht="120.75" customHeight="1">
+      <c r="A42" s="32">
+        <v>23</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>310</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="78"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="80"/>
+    </row>
+    <row r="43" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A43" s="32">
+        <v>24</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" s="73"/>
+      <c r="F43" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="80"/>
+    </row>
+    <row r="44" spans="1:12" s="20" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="78"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="80"/>
+    </row>
+    <row r="45" spans="1:12" s="20" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A45" s="32"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="78"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="80"/>
+    </row>
+    <row r="46" spans="1:12" s="20" customFormat="1" ht="91.5" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="80"/>
+    </row>
+    <row r="47" spans="1:12" ht="40.5" customHeight="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="69"/>
+    </row>
+    <row r="48" spans="1:12" ht="42.75" customHeight="1">
+      <c r="A48" s="24"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="69"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A12:L46">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="101">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="B41:L41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G14:G19 G21 G23:G27 G29:G30 G32:G33 G35:G40 G42:G48">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"U"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"H"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G19 G21 G23:G27 G29:G30 G32:G33 G35:G40 G42:G48">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="U">
+      <formula>NOT(ISERROR(SEARCH("U",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="P">
+      <formula>NOT(ISERROR(SEARCH("P",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",G14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D8">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Untested">
+      <formula>NOT(ISERROR(SEARCH("Untested",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="U - Untested_x000a_P - Passed_x000a_F - Failed_x000a_H - Hold_x000a_C - Cancel" sqref="G14:G19 G21 G23:G27 G29:G30 G32:G33 G35:G40 G42:G48">
       <formula1>"U,P,F,H,C"</formula1>
     </dataValidation>
   </dataValidations>
